--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_6_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_6_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2405037.951145911</v>
+        <v>2403343.092912016</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1287228.184107715</v>
+        <v>1287228.184107716</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9621572.421274317</v>
+        <v>9621572.421274316</v>
       </c>
     </row>
     <row r="11">
@@ -662,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.30273751513505</v>
+        <v>65.5944526828373</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -704,28 +704,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>198.7050131246913</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,28 +738,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>50.16678928893436</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -798,13 +798,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>40.58013988212374</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,46 +823,46 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>241.0142888776591</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>227.5210474355602</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -917,7 +917,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,10 +938,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -956,7 +956,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>48.83589518354164</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1029,13 +1029,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>49.98963829940104</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>93.26912801052356</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1139,64 +1139,64 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>71.01467844038818</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G8" t="n">
+      <c r="V8" t="n">
+        <v>222.1008216780093</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R8" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -1266,16 +1266,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>140.3787069980184</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>96.52468151912586</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1306,37 +1306,37 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.6477939084411</v>
+        <v>357.7795714149543</v>
       </c>
       <c r="C11" t="n">
         <v>340.3186215224812</v>
@@ -1382,10 +1382,10 @@
         <v>381.9217754931851</v>
       </c>
       <c r="G11" t="n">
-        <v>387.9966247312782</v>
+        <v>173.2624404754163</v>
       </c>
       <c r="H11" t="n">
-        <v>290.4347245022874</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>94.85220997855053</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.4731875638753</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>187.8463886171958</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>226.2032352564837</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>302.7979882216086</v>
       </c>
       <c r="W11" t="n">
         <v>324.2866984688867</v>
@@ -1436,7 +1436,7 @@
         <v>344.7768304299427</v>
       </c>
       <c r="Y11" t="n">
-        <v>361.2836684075273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I12" t="n">
-        <v>46.07197699567761</v>
+        <v>46.07197699567759</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.02995793686991</v>
+        <v>22.02995793686988</v>
       </c>
       <c r="S12" t="n">
         <v>148.3099331995005</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>154.877709933411</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>142.2925508501015</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>104.9044813177992</v>
       </c>
       <c r="S13" t="n">
         <v>180.6773288969401</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>198.4837816320203</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>261.3072160754403</v>
       </c>
       <c r="V13" t="n">
         <v>227.1833730753017</v>
       </c>
       <c r="W13" t="n">
-        <v>261.5687280880647</v>
+        <v>38.58962214378307</v>
       </c>
       <c r="X13" t="n">
-        <v>200.7553851405108</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>128.3758288571574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,16 +1607,16 @@
         <v>357.7795714149542</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>340.3186215224812</v>
       </c>
       <c r="D14" t="n">
-        <v>329.7287713721566</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>356.9760998237354</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>381.9217754931851</v>
+        <v>297.0262795019521</v>
       </c>
       <c r="G14" t="n">
         <v>387.9966247312782</v>
@@ -1658,10 +1658,10 @@
         <v>130.4731875638752</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>187.8463886171957</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>226.2032352564837</v>
       </c>
       <c r="V14" t="n">
         <v>302.7979882216085</v>
@@ -1673,7 +1673,7 @@
         <v>344.7768304299427</v>
       </c>
       <c r="Y14" t="n">
-        <v>344.051546616563</v>
+        <v>361.2836684075272</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.02995793686989</v>
+        <v>22.02995793686988</v>
       </c>
       <c r="S15" t="n">
         <v>148.3099331995005</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>154.8777099334109</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>142.2925508501015</v>
       </c>
       <c r="D16" t="n">
-        <v>123.661202769686</v>
+        <v>47.81403002706919</v>
       </c>
       <c r="E16" t="n">
         <v>121.4796923980428</v>
       </c>
       <c r="F16" t="n">
-        <v>120.4667777744048</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>42.19636111442869</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>104.9044813177992</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>180.67732889694</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>198.4837816320202</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>261.3072160754402</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>227.1833730753016</v>
       </c>
       <c r="W16" t="n">
-        <v>261.5687280880646</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>232.671219357909</v>
       </c>
       <c r="I17" t="n">
-        <v>37.08870483417211</v>
+        <v>37.08870483417213</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949687</v>
       </c>
       <c r="T17" t="n">
         <v>130.0828834728174</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.11420478903254</v>
+        <v>97.11420478903257</v>
       </c>
       <c r="C19" t="n">
-        <v>84.52904570572308</v>
+        <v>84.52904570572311</v>
       </c>
       <c r="D19" t="n">
-        <v>65.8976976253076</v>
+        <v>65.89769762530763</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>63.71618725366444</v>
       </c>
       <c r="F19" t="n">
-        <v>62.70327263002649</v>
+        <v>58.560790766004</v>
       </c>
       <c r="G19" t="n">
-        <v>84.21824836927563</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>70.12988281307801</v>
+        <v>70.12988281307803</v>
       </c>
       <c r="I19" t="n">
-        <v>41.00730760263663</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.14097617342081</v>
+        <v>47.14097617342084</v>
       </c>
       <c r="S19" t="n">
         <v>122.9138237525617</v>
@@ -2068,7 +2068,7 @@
         <v>142.9918799961324</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.21502737691955</v>
+        <v>135.86687795919</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C20" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D20" t="n">
         <v>271.9652662277782</v>
@@ -2093,13 +2093,13 @@
         <v>324.1582703488067</v>
       </c>
       <c r="G20" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H20" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I20" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417215</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949689</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U20" t="n">
         <v>168.4397301121053</v>
@@ -2147,7 +2147,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y20" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I21" t="n">
-        <v>46.07197699567761</v>
+        <v>46.07197699567759</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.02995793686991</v>
+        <v>22.02995793686989</v>
       </c>
       <c r="S21" t="n">
         <v>148.3099331995005</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C22" t="n">
-        <v>84.52904570572308</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D22" t="n">
-        <v>65.8976976253076</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E22" t="n">
-        <v>63.71618725366442</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F22" t="n">
-        <v>62.70327263002649</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>84.21824836927563</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H22" t="n">
-        <v>70.129882813078</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I22" t="n">
-        <v>41.00730760263663</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.14097617342081</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S22" t="n">
         <v>122.9138237525617</v>
@@ -2305,7 +2305,7 @@
         <v>142.9918799961324</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.6130449122881</v>
+        <v>110.2094203559181</v>
       </c>
     </row>
     <row r="23">
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>72.70968241949684</v>
+        <v>72.70968241949686</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0828834728173</v>
+        <v>130.0828834728174</v>
       </c>
       <c r="U23" t="n">
         <v>168.4397301121053</v>
@@ -2415,7 +2415,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I24" t="n">
-        <v>46.07197699567761</v>
+        <v>46.07197699567759</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>22.02995793686991</v>
+        <v>22.02995793686989</v>
       </c>
       <c r="S24" t="n">
         <v>148.3099331995005</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.27521265882102</v>
+        <v>97.11420478903256</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>65.8976976253076</v>
+        <v>65.89769762530761</v>
       </c>
       <c r="E25" t="n">
-        <v>63.71618725366442</v>
+        <v>59.88450272608875</v>
       </c>
       <c r="F25" t="n">
-        <v>62.70327263002649</v>
+        <v>62.7032726300265</v>
       </c>
       <c r="G25" t="n">
-        <v>84.21824836927563</v>
+        <v>84.21824836927564</v>
       </c>
       <c r="H25" t="n">
-        <v>70.129882813078</v>
+        <v>70.12988281307801</v>
       </c>
       <c r="I25" t="n">
-        <v>41.00730760263663</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.14097617342081</v>
+        <v>47.14097617342082</v>
       </c>
       <c r="S25" t="n">
         <v>122.9138237525617</v>
@@ -2555,7 +2555,7 @@
         <v>300.0160662705758</v>
       </c>
       <c r="C26" t="n">
-        <v>282.5551163781028</v>
+        <v>282.5551163781029</v>
       </c>
       <c r="D26" t="n">
         <v>271.9652662277782</v>
@@ -2567,13 +2567,13 @@
         <v>324.1582703488067</v>
       </c>
       <c r="G26" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H26" t="n">
         <v>232.671219357909</v>
       </c>
       <c r="I26" t="n">
-        <v>37.08870483417212</v>
+        <v>37.08870483417215</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>72.70968241949686</v>
+        <v>72.70968241949689</v>
       </c>
       <c r="T26" t="n">
         <v>130.0828834728174</v>
@@ -2621,7 +2621,7 @@
         <v>287.0133252855643</v>
       </c>
       <c r="Y26" t="n">
-        <v>303.5201632631488</v>
+        <v>303.5201632631489</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>100.0824643391291</v>
       </c>
       <c r="I27" t="n">
-        <v>46.07197699567761</v>
+        <v>46.07197699567759</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>22.02995793686991</v>
+        <v>22.02995793686989</v>
       </c>
       <c r="S27" t="n">
         <v>148.3099331995005</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>97.11420478903258</v>
       </c>
       <c r="C28" t="n">
-        <v>84.52904570572308</v>
+        <v>80.38656384169971</v>
       </c>
       <c r="D28" t="n">
-        <v>33.6438645784056</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E28" t="n">
-        <v>63.71618725366442</v>
+        <v>63.71618725366446</v>
       </c>
       <c r="F28" t="n">
-        <v>62.70327263002649</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G28" t="n">
-        <v>84.21824836927563</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>70.12988281307801</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I28" t="n">
-        <v>41.00730760263664</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.14097617342082</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S28" t="n">
         <v>122.9138237525617</v>
@@ -2779,7 +2779,7 @@
         <v>142.9918799961324</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.86687795919</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2798,7 @@
         <v>271.9652662277783</v>
       </c>
       <c r="E29" t="n">
-        <v>299.2125946793571</v>
+        <v>299.2125946793572</v>
       </c>
       <c r="F29" t="n">
         <v>324.1582703488068</v>
@@ -2807,10 +2807,10 @@
         <v>330.2331195868999</v>
       </c>
       <c r="H29" t="n">
-        <v>232.671219357909</v>
+        <v>232.6712193579091</v>
       </c>
       <c r="I29" t="n">
-        <v>37.08870483417218</v>
+        <v>37.0887048341722</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>72.70968241949691</v>
+        <v>72.70968241949694</v>
       </c>
       <c r="T29" t="n">
-        <v>130.0828834728174</v>
+        <v>130.0828834728175</v>
       </c>
       <c r="U29" t="n">
         <v>168.4397301121054</v>
@@ -2852,10 +2852,10 @@
         <v>245.0344830772302</v>
       </c>
       <c r="W29" t="n">
-        <v>266.5231933245083</v>
+        <v>266.5231933245084</v>
       </c>
       <c r="X29" t="n">
-        <v>287.0133252855643</v>
+        <v>287.0133252855644</v>
       </c>
       <c r="Y29" t="n">
         <v>303.5201632631489</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.11420478903261</v>
+        <v>97.11420478903264</v>
       </c>
       <c r="C31" t="n">
-        <v>84.52904570572315</v>
+        <v>84.52904570572318</v>
       </c>
       <c r="D31" t="n">
-        <v>65.89769762530767</v>
+        <v>65.8976976253077</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>63.71618725366451</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>62.70327263002659</v>
       </c>
       <c r="G31" t="n">
-        <v>81.26967041703034</v>
+        <v>84.21824836927573</v>
       </c>
       <c r="H31" t="n">
-        <v>70.12988281307807</v>
+        <v>70.1298828130781</v>
       </c>
       <c r="I31" t="n">
-        <v>41.0073076026367</v>
+        <v>34.55309351926223</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.14097617342088</v>
+        <v>47.14097617342091</v>
       </c>
       <c r="S31" t="n">
-        <v>122.9138237525618</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>140.7202764876419</v>
+        <v>140.720276487642</v>
       </c>
       <c r="U31" t="n">
-        <v>203.5437109310619</v>
+        <v>203.543710931062</v>
       </c>
       <c r="V31" t="n">
         <v>169.4198679309233</v>
@@ -3041,7 +3041,7 @@
         <v>324.1582703488067</v>
       </c>
       <c r="G32" t="n">
-        <v>330.2331195868998</v>
+        <v>330.2331195868999</v>
       </c>
       <c r="H32" t="n">
         <v>232.671219357909</v>
@@ -3190,7 +3190,7 @@
         <v>84.52904570572312</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>65.89769762530764</v>
       </c>
       <c r="E34" t="n">
         <v>63.71618725366446</v>
@@ -3202,10 +3202,10 @@
         <v>84.21824836927567</v>
       </c>
       <c r="H34" t="n">
-        <v>70.12988281307805</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>41.00730760263667</v>
+        <v>28.91012875319969</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>47.14097617342085</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>122.9138237525617</v>
@@ -3253,7 +3253,7 @@
         <v>142.9918799961324</v>
       </c>
       <c r="Y34" t="n">
-        <v>72.39653774856276</v>
+        <v>135.8668779591901</v>
       </c>
     </row>
     <row r="35">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.11420478903257</v>
+        <v>37.87604976617502</v>
       </c>
       <c r="C37" t="n">
         <v>84.52904570572311</v>
@@ -3430,16 +3430,16 @@
         <v>65.89769762530763</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>63.71618725366444</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>62.70327263002652</v>
       </c>
       <c r="G37" t="n">
         <v>84.21824836927566</v>
       </c>
       <c r="H37" t="n">
-        <v>70.12988281307803</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>41.00730760263666</v>
@@ -3472,7 +3472,7 @@
         <v>47.14097617342084</v>
       </c>
       <c r="S37" t="n">
-        <v>119.9652458003181</v>
+        <v>122.9138237525617</v>
       </c>
       <c r="T37" t="n">
         <v>140.7202764876419</v>
@@ -3661,25 +3661,25 @@
         <v>97.11420478903257</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>84.52904570572311</v>
       </c>
       <c r="D40" t="n">
         <v>65.89769762530763</v>
       </c>
       <c r="E40" t="n">
-        <v>18.8771951234524</v>
+        <v>63.71618725366444</v>
       </c>
       <c r="F40" t="n">
-        <v>62.70327263002652</v>
+        <v>44.47242520980534</v>
       </c>
       <c r="G40" t="n">
         <v>84.21824836927566</v>
       </c>
       <c r="H40" t="n">
-        <v>70.12988281307803</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>41.00730760263666</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>324.1582703488067</v>
       </c>
       <c r="G41" t="n">
-        <v>330.2331195868999</v>
+        <v>330.2331195868998</v>
       </c>
       <c r="H41" t="n">
         <v>232.671219357909</v>
@@ -3898,7 +3898,7 @@
         <v>97.11420478903258</v>
       </c>
       <c r="C43" t="n">
-        <v>84.52904570572312</v>
+        <v>17.86428049981429</v>
       </c>
       <c r="D43" t="n">
         <v>65.89769762530764</v>
@@ -3907,13 +3907,13 @@
         <v>63.71618725366446</v>
       </c>
       <c r="F43" t="n">
-        <v>62.70327263002653</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>84.21824836927567</v>
       </c>
       <c r="H43" t="n">
-        <v>70.12988281307804</v>
+        <v>70.12988281307805</v>
       </c>
       <c r="I43" t="n">
         <v>41.00730760263667</v>
@@ -3958,7 +3958,7 @@
         <v>169.4198679309233</v>
       </c>
       <c r="W43" t="n">
-        <v>74.43718510775108</v>
+        <v>203.8052229436863</v>
       </c>
       <c r="X43" t="n">
         <v>142.9918799961324</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>72.70968241949681</v>
+        <v>72.70968241949689</v>
       </c>
       <c r="T44" t="n">
         <v>130.0828834728174</v>
@@ -4135,7 +4135,7 @@
         <v>97.11420478903258</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>84.52904570572312</v>
       </c>
       <c r="D46" t="n">
         <v>65.89769762530764</v>
@@ -4144,16 +4144,16 @@
         <v>63.71618725366446</v>
       </c>
       <c r="F46" t="n">
-        <v>17.86428049981494</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>84.21824836927567</v>
+        <v>58.56079076600383</v>
       </c>
       <c r="H46" t="n">
         <v>70.12988281307804</v>
       </c>
       <c r="I46" t="n">
-        <v>41.00730760263667</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>509.8046290289238</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="C2" t="n">
-        <v>509.8046290289238</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D2" t="n">
-        <v>266.3558523848238</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E2" t="n">
-        <v>266.3558523848238</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F2" t="n">
-        <v>259.4103516356203</v>
+        <v>97.60815526925295</v>
       </c>
       <c r="G2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4352,28 +4352,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="W2" t="n">
-        <v>753.253405673024</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="X2" t="n">
-        <v>753.253405673024</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="Y2" t="n">
-        <v>509.8046290289238</v>
+        <v>104.5536560184564</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>547.0914794406409</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="C3" t="n">
-        <v>372.6384501595139</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>69.95466764448986</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4419,40 +4419,40 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>446.0215048700907</v>
       </c>
       <c r="X3" t="n">
-        <v>923.0671152256627</v>
+        <v>238.1700046645579</v>
       </c>
       <c r="Y3" t="n">
-        <v>715.3068164607089</v>
+        <v>238.1700046645579</v>
       </c>
     </row>
     <row r="4">
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
         <v>19.28114311021272</v>
@@ -4510,28 +4510,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>509.8046290289238</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>266.3558523848238</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D5" t="n">
-        <v>266.3558523848238</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E5" t="n">
-        <v>266.3558523848238</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>247.340362388537</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>753.253405673024</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>753.253405673024</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>753.253405673024</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>678.4104631380844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="C6" t="n">
-        <v>678.4104631380844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="D6" t="n">
-        <v>529.4760534768332</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E6" t="n">
-        <v>370.2385984713777</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F6" t="n">
-        <v>223.7040404982626</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,49 +4647,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>913.5625713698271</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>678.4104631380844</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>678.4104631380844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="X6" t="n">
-        <v>678.4104631380844</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="Y6" t="n">
-        <v>678.4104631380844</v>
+        <v>305.3006591534979</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4756,19 +4756,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.5825927271064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="C8" t="n">
-        <v>802.5825927271064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="D8" t="n">
-        <v>802.5825927271064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E8" t="n">
-        <v>730.8505943024719</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F8" t="n">
-        <v>487.4018176583718</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>285.1327311248648</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>41.68395448076474</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N9" t="n">
-        <v>725.4530095217538</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>345.4870131375847</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V9" t="n">
-        <v>110.334904905842</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W9" t="n">
-        <v>110.334904905842</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
         <v>19.28114311021272</v>
@@ -4984,28 +4984,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2277.477558491002</v>
+        <v>1767.205933482772</v>
       </c>
       <c r="C11" t="n">
-        <v>1933.72137513496</v>
+        <v>1423.44975012673</v>
       </c>
       <c r="D11" t="n">
-        <v>1600.66201011258</v>
+        <v>1090.390385104349</v>
       </c>
       <c r="E11" t="n">
-        <v>1240.080091098706</v>
+        <v>729.8084660904751</v>
       </c>
       <c r="F11" t="n">
-        <v>854.3005198934684</v>
+        <v>344.0288948852376</v>
       </c>
       <c r="G11" t="n">
-        <v>462.3847373366219</v>
+        <v>169.0163287484529</v>
       </c>
       <c r="H11" t="n">
         <v>169.0163287484529</v>
       </c>
       <c r="I11" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J11" t="n">
         <v>258.9898176069164</v>
       </c>
       <c r="K11" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L11" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M11" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N11" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191917</v>
       </c>
       <c r="O11" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219485</v>
       </c>
       <c r="P11" t="n">
         <v>3418.758763931393</v>
       </c>
       <c r="Q11" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="R11" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="S11" t="n">
-        <v>3660.300781940293</v>
+        <v>3528.509683390925</v>
       </c>
       <c r="T11" t="n">
-        <v>3660.300781940293</v>
+        <v>3338.765856504868</v>
       </c>
       <c r="U11" t="n">
-        <v>3660.300781940293</v>
+        <v>3110.277740084178</v>
       </c>
       <c r="V11" t="n">
-        <v>3660.300781940293</v>
+        <v>2804.421186324977</v>
       </c>
       <c r="W11" t="n">
-        <v>3332.738460254549</v>
+        <v>2476.858864639234</v>
       </c>
       <c r="X11" t="n">
-        <v>2984.47903557784</v>
+        <v>2128.599439962524</v>
       </c>
       <c r="Y11" t="n">
-        <v>2619.546037186397</v>
+        <v>2128.599439962524</v>
       </c>
     </row>
     <row r="12">
@@ -5106,34 +5106,34 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2965326142068</v>
+        <v>358.2965326142067</v>
       </c>
       <c r="G12" t="n">
-        <v>220.836764461843</v>
+        <v>220.8367644618429</v>
       </c>
       <c r="H12" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I12" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J12" t="n">
         <v>190.1641956615503</v>
       </c>
       <c r="K12" t="n">
-        <v>516.6851972600602</v>
+        <v>254.8646126176075</v>
       </c>
       <c r="L12" t="n">
-        <v>1017.137375390435</v>
+        <v>755.3167907479824</v>
       </c>
       <c r="M12" t="n">
-        <v>1192.072670992107</v>
+        <v>930.2520863496549</v>
       </c>
       <c r="N12" t="n">
-        <v>1853.763183346939</v>
+        <v>1598.774994205551</v>
       </c>
       <c r="O12" t="n">
-        <v>2008.991663148739</v>
+        <v>2143.927170091313</v>
       </c>
       <c r="P12" t="n">
         <v>2429.521278084463</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.20601563880587</v>
+        <v>216.9358649823428</v>
       </c>
       <c r="C13" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="D13" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="E13" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="F13" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="G13" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="H13" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I13" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J13" t="n">
-        <v>79.324661919653</v>
+        <v>79.32466191965307</v>
       </c>
       <c r="K13" t="n">
-        <v>203.3235852420084</v>
+        <v>203.3235852420086</v>
       </c>
       <c r="L13" t="n">
-        <v>410.6171321895911</v>
+        <v>410.6171321895912</v>
       </c>
       <c r="M13" t="n">
-        <v>638.2252920475061</v>
+        <v>638.2252920475064</v>
       </c>
       <c r="N13" t="n">
-        <v>866.4434782183682</v>
+        <v>866.4434782183686</v>
       </c>
       <c r="O13" t="n">
         <v>1063.109528897734</v>
@@ -5218,31 +5218,31 @@
         <v>1211.436193392007</v>
       </c>
       <c r="Q13" t="n">
-        <v>1238.295262094751</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="R13" t="n">
-        <v>1238.295262094751</v>
+        <v>1132.33113955152</v>
       </c>
       <c r="S13" t="n">
-        <v>1055.7929096736</v>
+        <v>949.8287871303684</v>
       </c>
       <c r="T13" t="n">
-        <v>1055.7929096736</v>
+        <v>749.3401188151963</v>
       </c>
       <c r="U13" t="n">
-        <v>1055.7929096736</v>
+        <v>485.3934359107112</v>
       </c>
       <c r="V13" t="n">
-        <v>826.3147550520827</v>
+        <v>255.9152812891944</v>
       </c>
       <c r="W13" t="n">
-        <v>562.1039185994921</v>
+        <v>216.9358649823428</v>
       </c>
       <c r="X13" t="n">
-        <v>359.3207012858446</v>
+        <v>216.9358649823428</v>
       </c>
       <c r="Y13" t="n">
-        <v>229.6481468846755</v>
+        <v>216.9358649823428</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1837.911062025313</v>
+        <v>1402.27293509133</v>
       </c>
       <c r="C14" t="n">
-        <v>1837.911062025313</v>
+        <v>1058.516751735288</v>
       </c>
       <c r="D14" t="n">
-        <v>1504.851697002933</v>
+        <v>1058.516751735288</v>
       </c>
       <c r="E14" t="n">
-        <v>1144.269777989059</v>
+        <v>1058.516751735288</v>
       </c>
       <c r="F14" t="n">
-        <v>758.4902067838215</v>
+        <v>758.4902067838216</v>
       </c>
       <c r="G14" t="n">
         <v>366.5744242269749</v>
       </c>
       <c r="H14" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I14" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J14" t="n">
-        <v>258.9898176069159</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K14" t="n">
-        <v>658.1763815223497</v>
+        <v>658.1763815223502</v>
       </c>
       <c r="L14" t="n">
-        <v>1205.679240092234</v>
+        <v>1205.679240092235</v>
       </c>
       <c r="M14" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N14" t="n">
         <v>2452.791422191916</v>
@@ -5297,31 +5297,31 @@
         <v>3418.758763931393</v>
       </c>
       <c r="Q14" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="R14" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="S14" t="n">
         <v>3528.509683390925</v>
       </c>
       <c r="T14" t="n">
-        <v>3528.509683390925</v>
+        <v>3338.765856504869</v>
       </c>
       <c r="U14" t="n">
-        <v>3528.509683390925</v>
+        <v>3110.277740084178</v>
       </c>
       <c r="V14" t="n">
-        <v>3222.653129631724</v>
+        <v>2804.421186324977</v>
       </c>
       <c r="W14" t="n">
-        <v>2895.09080794598</v>
+        <v>2476.858864639233</v>
       </c>
       <c r="X14" t="n">
-        <v>2546.83138326927</v>
+        <v>2128.599439962523</v>
       </c>
       <c r="Y14" t="n">
-        <v>2199.304568505065</v>
+        <v>1763.666441571082</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I15" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J15" t="n">
-        <v>190.1641956615503</v>
+        <v>183.3318001604858</v>
       </c>
       <c r="K15" t="n">
-        <v>516.6851972600602</v>
+        <v>509.8528017589958</v>
       </c>
       <c r="L15" t="n">
-        <v>1017.137375390435</v>
+        <v>1010.304979889371</v>
       </c>
       <c r="M15" t="n">
-        <v>1269.865530007199</v>
+        <v>1185.240275491043</v>
       </c>
       <c r="N15" t="n">
-        <v>1463.839487262977</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O15" t="n">
         <v>2008.991663148739</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>485.1292823626061</v>
+        <v>387.9396250077084</v>
       </c>
       <c r="C16" t="n">
-        <v>485.1292823626061</v>
+        <v>244.2097756641716</v>
       </c>
       <c r="D16" t="n">
-        <v>360.2189765346405</v>
+        <v>195.9127756368289</v>
       </c>
       <c r="E16" t="n">
-        <v>237.5122165366175</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="F16" t="n">
-        <v>115.8286026230773</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="G16" t="n">
-        <v>115.8286026230773</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="H16" t="n">
-        <v>115.8286026230773</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I16" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J16" t="n">
-        <v>79.32466191965311</v>
+        <v>79.32466191965307</v>
       </c>
       <c r="K16" t="n">
-        <v>203.3235852420087</v>
+        <v>203.3235852420086</v>
       </c>
       <c r="L16" t="n">
         <v>410.6171321895914</v>
@@ -5452,34 +5452,34 @@
         <v>1063.109528897735</v>
       </c>
       <c r="P16" t="n">
-        <v>1211.436193392008</v>
+        <v>1211.436193392007</v>
       </c>
       <c r="Q16" t="n">
         <v>1238.295262094752</v>
       </c>
       <c r="R16" t="n">
-        <v>1132.33113955152</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="S16" t="n">
-        <v>949.8287871303686</v>
+        <v>1238.295262094752</v>
       </c>
       <c r="T16" t="n">
-        <v>749.3401188151968</v>
+        <v>1037.80659377958</v>
       </c>
       <c r="U16" t="n">
-        <v>749.3401188151968</v>
+        <v>773.8599108750948</v>
       </c>
       <c r="V16" t="n">
-        <v>749.3401188151968</v>
+        <v>544.381756253578</v>
       </c>
       <c r="W16" t="n">
-        <v>485.1292823626061</v>
+        <v>544.381756253578</v>
       </c>
       <c r="X16" t="n">
-        <v>485.1292823626061</v>
+        <v>544.381756253578</v>
       </c>
       <c r="Y16" t="n">
-        <v>485.1292823626061</v>
+        <v>544.381756253578</v>
       </c>
     </row>
     <row r="17">
@@ -5504,46 +5504,46 @@
         <v>679.2595952135341</v>
       </c>
       <c r="G17" t="n">
-        <v>345.6907875499989</v>
+        <v>345.690787549999</v>
       </c>
       <c r="H17" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I17" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J17" t="n">
-        <v>258.9898176069162</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K17" t="n">
-        <v>658.17638152235</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L17" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M17" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N17" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191917</v>
       </c>
       <c r="O17" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219485</v>
       </c>
       <c r="P17" t="n">
         <v>3418.758763931393</v>
       </c>
       <c r="Q17" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="R17" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="S17" t="n">
         <v>3586.856658284236</v>
       </c>
       <c r="T17" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U17" t="n">
         <v>3285.318664764112</v>
@@ -5589,28 +5589,28 @@
         <v>119.7433661394903</v>
       </c>
       <c r="I18" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J18" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="K18" t="n">
-        <v>516.6851972600602</v>
+        <v>399.7270172373159</v>
       </c>
       <c r="L18" t="n">
-        <v>1017.137375390435</v>
+        <v>900.1791953676907</v>
       </c>
       <c r="M18" t="n">
-        <v>1269.865530007199</v>
+        <v>1075.114490969363</v>
       </c>
       <c r="N18" t="n">
-        <v>1463.839487262977</v>
+        <v>1743.637398825259</v>
       </c>
       <c r="O18" t="n">
-        <v>2008.991663148739</v>
+        <v>2216.96817800723</v>
       </c>
       <c r="P18" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.936419551312</v>
@@ -5647,43 +5647,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>485.8175860893589</v>
+        <v>419.5025855012071</v>
       </c>
       <c r="C19" t="n">
-        <v>400.4347116391335</v>
+        <v>334.1197110509818</v>
       </c>
       <c r="D19" t="n">
-        <v>333.8713807044793</v>
+        <v>267.5563801163276</v>
       </c>
       <c r="E19" t="n">
-        <v>333.8713807044793</v>
+        <v>203.196595011616</v>
       </c>
       <c r="F19" t="n">
-        <v>270.5347416842505</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="G19" t="n">
-        <v>185.4658039375075</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H19" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I19" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J19" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K19" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L19" t="n">
         <v>582.174742468395</v>
       </c>
       <c r="M19" t="n">
-        <v>866.9687724192446</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N19" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O19" t="n">
         <v>1406.224749455342</v>
@@ -5692,7 +5692,7 @@
         <v>1611.737284042549</v>
       </c>
       <c r="Q19" t="n">
-        <v>1695.782222838229</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="R19" t="n">
         <v>1648.165075188308</v>
@@ -5701,7 +5701,7 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T19" t="n">
-        <v>1381.868004238608</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U19" t="n">
         <v>1176.268296227434</v>
@@ -5710,13 +5710,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W19" t="n">
-        <v>799.2732549399498</v>
+        <v>799.2732549399497</v>
       </c>
       <c r="X19" t="n">
-        <v>654.8370125196139</v>
+        <v>654.8370125196138</v>
       </c>
       <c r="Y19" t="n">
-        <v>583.912742441917</v>
+        <v>517.5977418537653</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>1869.048734237822</v>
       </c>
       <c r="C20" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D20" t="n">
-        <v>1308.927135646023</v>
+        <v>1308.927135646022</v>
       </c>
       <c r="E20" t="n">
         <v>1006.69219152546</v>
       </c>
       <c r="F20" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135341</v>
       </c>
       <c r="G20" t="n">
-        <v>345.6907875499992</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H20" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I20" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J20" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K20" t="n">
-        <v>658.17638152235</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L20" t="n">
         <v>1205.679240092235</v>
@@ -5771,13 +5771,13 @@
         <v>3418.758763931393</v>
       </c>
       <c r="Q20" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="R20" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="S20" t="n">
-        <v>3586.856658284237</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T20" t="n">
         <v>3455.459806291492</v>
@@ -5817,37 +5817,37 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2965326142068</v>
+        <v>358.2965326142067</v>
       </c>
       <c r="G21" t="n">
-        <v>220.836764461843</v>
+        <v>220.8367644618429</v>
       </c>
       <c r="H21" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I21" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J21" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="K21" t="n">
-        <v>516.6851972600602</v>
+        <v>137.9064325948631</v>
       </c>
       <c r="L21" t="n">
-        <v>1017.137375390435</v>
+        <v>271.2266688748133</v>
       </c>
       <c r="M21" t="n">
-        <v>1192.072670992107</v>
+        <v>907.2099775889857</v>
       </c>
       <c r="N21" t="n">
-        <v>1463.839487262977</v>
+        <v>1575.732885444882</v>
       </c>
       <c r="O21" t="n">
-        <v>2008.991663148739</v>
+        <v>2120.885061330644</v>
       </c>
       <c r="P21" t="n">
-        <v>2429.521278084463</v>
+        <v>2541.414676266368</v>
       </c>
       <c r="Q21" t="n">
         <v>2657.936419551312</v>
@@ -5884,43 +5884,43 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>550.1773711940708</v>
+        <v>445.4192093428957</v>
       </c>
       <c r="C22" t="n">
-        <v>464.7944967438453</v>
+        <v>360.0363348926703</v>
       </c>
       <c r="D22" t="n">
-        <v>398.2311658091912</v>
+        <v>293.4730039580161</v>
       </c>
       <c r="E22" t="n">
-        <v>333.8713807044796</v>
+        <v>229.1132188533046</v>
       </c>
       <c r="F22" t="n">
-        <v>270.5347416842508</v>
+        <v>229.1132188533046</v>
       </c>
       <c r="G22" t="n">
-        <v>185.4658039375075</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H22" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I22" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J22" t="n">
         <v>136.5105320125876</v>
       </c>
       <c r="K22" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L22" t="n">
-        <v>582.174742468395</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M22" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192449</v>
       </c>
       <c r="N22" t="n">
-        <v>1152.372828683041</v>
+        <v>1152.372828683042</v>
       </c>
       <c r="O22" t="n">
         <v>1406.224749455342</v>
@@ -5947,13 +5947,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W22" t="n">
-        <v>799.27325493995</v>
+        <v>799.2732549399494</v>
       </c>
       <c r="X22" t="n">
-        <v>654.8370125196143</v>
+        <v>654.8370125196136</v>
       </c>
       <c r="Y22" t="n">
-        <v>550.1773711940708</v>
+        <v>543.5143656954539</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F23" t="n">
-        <v>679.2595952135339</v>
+        <v>679.2595952135341</v>
       </c>
       <c r="G23" t="n">
-        <v>345.6907875499987</v>
+        <v>345.6907875499989</v>
       </c>
       <c r="H23" t="n">
         <v>110.6693538551413</v>
@@ -5987,10 +5987,10 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J23" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069159</v>
       </c>
       <c r="K23" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223497</v>
       </c>
       <c r="L23" t="n">
         <v>1205.679240092234</v>
@@ -6014,7 +6014,7 @@
         <v>3660.300781940293</v>
       </c>
       <c r="S23" t="n">
-        <v>3586.856658284235</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T23" t="n">
         <v>3455.459806291491</v>
@@ -6026,7 +6026,7 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W23" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X23" t="n">
         <v>2478.681289322392</v>
@@ -6054,10 +6054,10 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2965326142068</v>
+        <v>358.2965326142067</v>
       </c>
       <c r="G24" t="n">
-        <v>220.836764461843</v>
+        <v>220.8367644618429</v>
       </c>
       <c r="H24" t="n">
         <v>119.7433661394903</v>
@@ -6066,25 +6066,25 @@
         <v>73.20601563880587</v>
       </c>
       <c r="J24" t="n">
-        <v>169.289132315392</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="K24" t="n">
-        <v>233.9895492714491</v>
+        <v>137.906432594863</v>
       </c>
       <c r="L24" t="n">
-        <v>367.3097855513993</v>
+        <v>638.3586107252378</v>
       </c>
       <c r="M24" t="n">
-        <v>1003.293094265572</v>
+        <v>813.2939063269102</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.816002121468</v>
+        <v>1463.839487262977</v>
       </c>
       <c r="O24" t="n">
-        <v>2216.96817800723</v>
+        <v>2008.991663148739</v>
       </c>
       <c r="P24" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q24" t="n">
         <v>2657.936419551312</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>464.794496743845</v>
+        <v>419.5025855012063</v>
       </c>
       <c r="C25" t="n">
-        <v>464.794496743845</v>
+        <v>419.5025855012063</v>
       </c>
       <c r="D25" t="n">
-        <v>398.2311658091909</v>
+        <v>352.9392545665522</v>
       </c>
       <c r="E25" t="n">
-        <v>333.8713807044793</v>
+        <v>292.4498578735332</v>
       </c>
       <c r="F25" t="n">
-        <v>270.5347416842505</v>
+        <v>229.1132188533044</v>
       </c>
       <c r="G25" t="n">
-        <v>185.4658039375075</v>
+        <v>144.0442811065614</v>
       </c>
       <c r="H25" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880587</v>
       </c>
       <c r="I25" t="n">
         <v>73.20601563880587</v>
       </c>
       <c r="J25" t="n">
-        <v>136.5105320125875</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K25" t="n">
-        <v>317.6953254278776</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L25" t="n">
-        <v>582.1747424683949</v>
+        <v>582.174742468395</v>
       </c>
       <c r="M25" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N25" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O25" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P25" t="n">
         <v>1611.737284042549</v>
@@ -6175,7 +6175,7 @@
         <v>1524.009697660468</v>
       </c>
       <c r="T25" t="n">
-        <v>1381.868004238607</v>
+        <v>1381.868004238608</v>
       </c>
       <c r="U25" t="n">
         <v>1176.268296227434</v>
@@ -6190,7 +6190,7 @@
         <v>654.8370125196138</v>
       </c>
       <c r="Y25" t="n">
-        <v>517.5977418537652</v>
+        <v>517.5977418537645</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1869.048734237821</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C26" t="n">
-        <v>1583.639525775091</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D26" t="n">
         <v>1308.927135646023</v>
@@ -6212,49 +6212,49 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F26" t="n">
-        <v>679.2595952135339</v>
+        <v>679.2595952135342</v>
       </c>
       <c r="G26" t="n">
-        <v>345.6907875499987</v>
+        <v>345.690787549999</v>
       </c>
       <c r="H26" t="n">
-        <v>110.6693538551413</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I26" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J26" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069163</v>
       </c>
       <c r="K26" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223501</v>
       </c>
       <c r="L26" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M26" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N26" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191917</v>
       </c>
       <c r="O26" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219485</v>
       </c>
       <c r="P26" t="n">
         <v>3418.758763931393</v>
       </c>
       <c r="Q26" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="R26" t="n">
-        <v>3660.300781940293</v>
+        <v>3660.300781940294</v>
       </c>
       <c r="S26" t="n">
         <v>3586.856658284236</v>
       </c>
       <c r="T26" t="n">
-        <v>3455.459806291491</v>
+        <v>3455.459806291492</v>
       </c>
       <c r="U26" t="n">
         <v>3285.318664764112</v>
@@ -6263,7 +6263,7 @@
         <v>3037.809085898223</v>
       </c>
       <c r="W26" t="n">
-        <v>2768.59373910579</v>
+        <v>2768.593739105791</v>
       </c>
       <c r="X26" t="n">
         <v>2478.681289322392</v>
@@ -6291,34 +6291,34 @@
         <v>504.8310905873218</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2965326142068</v>
+        <v>358.2965326142067</v>
       </c>
       <c r="G27" t="n">
-        <v>220.836764461843</v>
+        <v>220.8367644618429</v>
       </c>
       <c r="H27" t="n">
         <v>119.7433661394903</v>
       </c>
       <c r="I27" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J27" t="n">
         <v>190.1641956615503</v>
       </c>
       <c r="K27" t="n">
-        <v>516.6851972600602</v>
+        <v>254.8646126176075</v>
       </c>
       <c r="L27" t="n">
-        <v>1017.137375390435</v>
+        <v>388.1848488975577</v>
       </c>
       <c r="M27" t="n">
-        <v>1269.865530007199</v>
+        <v>1024.16815761173</v>
       </c>
       <c r="N27" t="n">
-        <v>1463.839487262977</v>
+        <v>1692.691065467626</v>
       </c>
       <c r="O27" t="n">
-        <v>2008.991663148739</v>
+        <v>2237.843241353388</v>
       </c>
       <c r="P27" t="n">
         <v>2429.521278084463</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>517.5977418537652</v>
+        <v>419.5025855012062</v>
       </c>
       <c r="C28" t="n">
-        <v>432.21486740354</v>
+        <v>338.304036166156</v>
       </c>
       <c r="D28" t="n">
-        <v>398.2311658091909</v>
+        <v>271.7407052315019</v>
       </c>
       <c r="E28" t="n">
-        <v>333.8713807044793</v>
+        <v>207.3809201267903</v>
       </c>
       <c r="F28" t="n">
-        <v>270.5347416842506</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="G28" t="n">
-        <v>185.4658039375075</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H28" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I28" t="n">
-        <v>73.20601563880587</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="J28" t="n">
-        <v>136.5105320125877</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K28" t="n">
-        <v>317.6953254278778</v>
+        <v>317.6953254278777</v>
       </c>
       <c r="L28" t="n">
-        <v>582.1747424683952</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M28" t="n">
         <v>866.9687724192447</v>
@@ -6418,16 +6418,16 @@
         <v>1176.268296227434</v>
       </c>
       <c r="V28" t="n">
-        <v>1005.137116499229</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W28" t="n">
-        <v>799.2732549399495</v>
+        <v>799.2732549399492</v>
       </c>
       <c r="X28" t="n">
-        <v>654.8370125196137</v>
+        <v>654.8370125196134</v>
       </c>
       <c r="Y28" t="n">
-        <v>517.5977418537652</v>
+        <v>517.5977418537644</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1869.048734237823</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C29" t="n">
-        <v>1583.639525775093</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D29" t="n">
-        <v>1308.927135646024</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E29" t="n">
-        <v>1006.692191525461</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F29" t="n">
-        <v>679.2595952135349</v>
+        <v>679.2595952135345</v>
       </c>
       <c r="G29" t="n">
-        <v>345.6907875499996</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H29" t="n">
-        <v>110.6693538551414</v>
+        <v>110.6693538551415</v>
       </c>
       <c r="I29" t="n">
         <v>73.20601563880588</v>
@@ -6464,19 +6464,19 @@
         <v>258.9898176069164</v>
       </c>
       <c r="K29" t="n">
-        <v>658.1763815223499</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L29" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M29" t="n">
-        <v>1831.488208231171</v>
+        <v>1831.488208231172</v>
       </c>
       <c r="N29" t="n">
-        <v>2452.791422191916</v>
+        <v>2452.791422191917</v>
       </c>
       <c r="O29" t="n">
-        <v>2994.282791219484</v>
+        <v>2994.282791219485</v>
       </c>
       <c r="P29" t="n">
         <v>3418.758763931393</v>
@@ -6488,25 +6488,25 @@
         <v>3660.300781940294</v>
       </c>
       <c r="S29" t="n">
-        <v>3586.856658284237</v>
+        <v>3586.856658284236</v>
       </c>
       <c r="T29" t="n">
-        <v>3455.459806291492</v>
+        <v>3455.459806291491</v>
       </c>
       <c r="U29" t="n">
         <v>3285.318664764113</v>
       </c>
       <c r="V29" t="n">
-        <v>3037.809085898224</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W29" t="n">
         <v>2768.593739105791</v>
       </c>
       <c r="X29" t="n">
-        <v>2478.681289322393</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y29" t="n">
-        <v>2172.095265824263</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="30">
@@ -6543,10 +6543,10 @@
         <v>190.1641956615503</v>
       </c>
       <c r="K30" t="n">
-        <v>516.6851972600602</v>
+        <v>254.8646126176075</v>
       </c>
       <c r="L30" t="n">
-        <v>1017.137375390435</v>
+        <v>633.8822212930265</v>
       </c>
       <c r="M30" t="n">
         <v>1269.865530007199</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>419.5025855012058</v>
+        <v>543.6579630290465</v>
       </c>
       <c r="C31" t="n">
-        <v>334.1197110509804</v>
+        <v>458.2750885788211</v>
       </c>
       <c r="D31" t="n">
-        <v>267.5563801163262</v>
+        <v>391.7117576441668</v>
       </c>
       <c r="E31" t="n">
-        <v>267.5563801163262</v>
+        <v>327.351972539455</v>
       </c>
       <c r="F31" t="n">
-        <v>267.5563801163262</v>
+        <v>264.0153335192261</v>
       </c>
       <c r="G31" t="n">
-        <v>185.4658039375077</v>
+        <v>178.946395772483</v>
       </c>
       <c r="H31" t="n">
-        <v>114.627538469752</v>
+        <v>108.1081303047273</v>
       </c>
       <c r="I31" t="n">
         <v>73.20601563880588</v>
@@ -6622,13 +6622,13 @@
         <v>136.5105320125876</v>
       </c>
       <c r="K31" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278776</v>
       </c>
       <c r="L31" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683947</v>
       </c>
       <c r="M31" t="n">
-        <v>866.9687724192447</v>
+        <v>866.9687724192443</v>
       </c>
       <c r="N31" t="n">
         <v>1152.372828683041</v>
@@ -6646,25 +6646,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S31" t="n">
-        <v>1524.009697660468</v>
+        <v>1648.165075188308</v>
       </c>
       <c r="T31" t="n">
-        <v>1381.868004238607</v>
+        <v>1506.023381766447</v>
       </c>
       <c r="U31" t="n">
-        <v>1176.268296227433</v>
+        <v>1300.423673755274</v>
       </c>
       <c r="V31" t="n">
-        <v>1005.137116499228</v>
+        <v>1129.292494027068</v>
       </c>
       <c r="W31" t="n">
-        <v>799.2732549399485</v>
+        <v>923.4286324677892</v>
       </c>
       <c r="X31" t="n">
-        <v>654.8370125196127</v>
+        <v>778.9923900474533</v>
       </c>
       <c r="Y31" t="n">
-        <v>517.5977418537641</v>
+        <v>641.7531193816047</v>
       </c>
     </row>
     <row r="32">
@@ -6686,7 +6686,7 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F32" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135345</v>
       </c>
       <c r="G32" t="n">
         <v>345.6907875499992</v>
@@ -6698,10 +6698,10 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J32" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K32" t="n">
-        <v>658.1763815223501</v>
+        <v>658.1763815223499</v>
       </c>
       <c r="L32" t="n">
         <v>1205.679240092235</v>
@@ -6786,10 +6786,10 @@
         <v>1017.137375390435</v>
       </c>
       <c r="M33" t="n">
-        <v>1269.865530007199</v>
+        <v>1653.120684104607</v>
       </c>
       <c r="N33" t="n">
-        <v>1463.839487262977</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O33" t="n">
         <v>2008.991663148739</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>483.6140402594165</v>
+        <v>467.1197331511258</v>
       </c>
       <c r="C34" t="n">
-        <v>398.2311658091911</v>
+        <v>381.7368587009005</v>
       </c>
       <c r="D34" t="n">
-        <v>398.2311658091911</v>
+        <v>315.1735277662464</v>
       </c>
       <c r="E34" t="n">
-        <v>333.8713807044795</v>
+        <v>250.8137426615348</v>
       </c>
       <c r="F34" t="n">
-        <v>270.5347416842507</v>
+        <v>187.477103641306</v>
       </c>
       <c r="G34" t="n">
-        <v>185.4658039375076</v>
+        <v>102.4081658945631</v>
       </c>
       <c r="H34" t="n">
-        <v>114.627538469752</v>
+        <v>102.4081658945631</v>
       </c>
       <c r="I34" t="n">
         <v>73.20601563880588</v>
@@ -6880,28 +6880,28 @@
         <v>1695.782222838228</v>
       </c>
       <c r="R34" t="n">
-        <v>1648.165075188308</v>
+        <v>1695.782222838228</v>
       </c>
       <c r="S34" t="n">
-        <v>1524.009697660468</v>
+        <v>1571.626845310388</v>
       </c>
       <c r="T34" t="n">
-        <v>1381.868004238607</v>
+        <v>1429.485151888527</v>
       </c>
       <c r="U34" t="n">
-        <v>1176.268296227434</v>
+        <v>1223.885443877353</v>
       </c>
       <c r="V34" t="n">
-        <v>1005.137116499229</v>
+        <v>1052.754264149148</v>
       </c>
       <c r="W34" t="n">
-        <v>799.2732549399495</v>
+        <v>846.8904025898686</v>
       </c>
       <c r="X34" t="n">
-        <v>654.8370125196137</v>
+        <v>702.4541601695328</v>
       </c>
       <c r="Y34" t="n">
-        <v>581.7091966119747</v>
+        <v>565.214889503684</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1869.048734237823</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C35" t="n">
-        <v>1583.639525775093</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D35" t="n">
-        <v>1308.927135646024</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E35" t="n">
-        <v>1006.692191525461</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F35" t="n">
-        <v>679.259595213535</v>
+        <v>679.2595952135343</v>
       </c>
       <c r="G35" t="n">
-        <v>345.6907875499998</v>
+        <v>345.6907875499988</v>
       </c>
       <c r="H35" t="n">
-        <v>110.6693538551422</v>
+        <v>110.6693538551414</v>
       </c>
       <c r="I35" t="n">
         <v>73.20601563880588</v>
       </c>
       <c r="J35" t="n">
-        <v>258.9898176069164</v>
+        <v>258.9898176069162</v>
       </c>
       <c r="K35" t="n">
-        <v>658.1763815223503</v>
+        <v>658.17638152235</v>
       </c>
       <c r="L35" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M35" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N35" t="n">
-        <v>2452.791422191917</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O35" t="n">
-        <v>2994.282791219485</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P35" t="n">
         <v>3418.758763931393</v>
@@ -6968,19 +6968,19 @@
         <v>3455.459806291492</v>
       </c>
       <c r="U35" t="n">
-        <v>3285.318664764113</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V35" t="n">
-        <v>3037.809085898224</v>
+        <v>3037.809085898223</v>
       </c>
       <c r="W35" t="n">
         <v>2768.593739105791</v>
       </c>
       <c r="X35" t="n">
-        <v>2478.681289322393</v>
+        <v>2478.681289322392</v>
       </c>
       <c r="Y35" t="n">
-        <v>2172.095265824263</v>
+        <v>2172.095265824262</v>
       </c>
     </row>
     <row r="36">
@@ -7017,16 +7017,16 @@
         <v>190.1641956615503</v>
       </c>
       <c r="K36" t="n">
-        <v>516.6851972600602</v>
+        <v>254.8646126176075</v>
       </c>
       <c r="L36" t="n">
-        <v>1017.137375390435</v>
+        <v>549.2569667768707</v>
       </c>
       <c r="M36" t="n">
-        <v>1269.865530007199</v>
+        <v>1185.240275491043</v>
       </c>
       <c r="N36" t="n">
-        <v>1463.839487262977</v>
+        <v>1853.763183346939</v>
       </c>
       <c r="O36" t="n">
         <v>2008.991663148739</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>422.4809470691299</v>
+        <v>479.3391057263149</v>
       </c>
       <c r="C37" t="n">
-        <v>337.0980726189046</v>
+        <v>393.9562312760896</v>
       </c>
       <c r="D37" t="n">
-        <v>270.5347416842504</v>
+        <v>327.3929003414354</v>
       </c>
       <c r="E37" t="n">
-        <v>270.5347416842504</v>
+        <v>263.0331152367238</v>
       </c>
       <c r="F37" t="n">
-        <v>270.5347416842504</v>
+        <v>199.696476216495</v>
       </c>
       <c r="G37" t="n">
-        <v>185.4658039375073</v>
+        <v>114.627538469752</v>
       </c>
       <c r="H37" t="n">
-        <v>114.6275384697517</v>
+        <v>114.627538469752</v>
       </c>
       <c r="I37" t="n">
         <v>73.20601563880588</v>
       </c>
       <c r="J37" t="n">
-        <v>136.5105320125876</v>
+        <v>136.5105320125877</v>
       </c>
       <c r="K37" t="n">
         <v>317.6953254278777</v>
@@ -7108,7 +7108,7 @@
         <v>1152.372828683041</v>
       </c>
       <c r="O37" t="n">
-        <v>1406.224749455342</v>
+        <v>1406.224749455341</v>
       </c>
       <c r="P37" t="n">
         <v>1611.737284042549</v>
@@ -7120,25 +7120,25 @@
         <v>1648.165075188308</v>
       </c>
       <c r="S37" t="n">
-        <v>1526.988059228391</v>
+        <v>1524.009697660468</v>
       </c>
       <c r="T37" t="n">
-        <v>1384.84636580653</v>
+        <v>1381.868004238607</v>
       </c>
       <c r="U37" t="n">
-        <v>1179.246657795357</v>
+        <v>1176.268296227433</v>
       </c>
       <c r="V37" t="n">
-        <v>1008.115478067152</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W37" t="n">
-        <v>802.2516165078727</v>
+        <v>799.273254939949</v>
       </c>
       <c r="X37" t="n">
-        <v>657.8153740875368</v>
+        <v>654.8370125196132</v>
       </c>
       <c r="Y37" t="n">
-        <v>520.5761034216881</v>
+        <v>517.5977418537644</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1869.048734237822</v>
+        <v>1869.048734237821</v>
       </c>
       <c r="C38" t="n">
-        <v>1583.639525775092</v>
+        <v>1583.639525775091</v>
       </c>
       <c r="D38" t="n">
         <v>1308.927135646023</v>
@@ -7160,10 +7160,10 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F38" t="n">
-        <v>679.2595952135343</v>
+        <v>679.2595952135339</v>
       </c>
       <c r="G38" t="n">
-        <v>345.6907875499992</v>
+        <v>345.6907875499986</v>
       </c>
       <c r="H38" t="n">
         <v>110.6693538551414</v>
@@ -7175,19 +7175,19 @@
         <v>258.9898176069163</v>
       </c>
       <c r="K38" t="n">
-        <v>658.1763815223501</v>
+        <v>658.17638152235</v>
       </c>
       <c r="L38" t="n">
         <v>1205.679240092235</v>
       </c>
       <c r="M38" t="n">
-        <v>1831.488208231172</v>
+        <v>1831.488208231171</v>
       </c>
       <c r="N38" t="n">
-        <v>2452.791422191917</v>
+        <v>2452.791422191916</v>
       </c>
       <c r="O38" t="n">
-        <v>2994.282791219485</v>
+        <v>2994.282791219484</v>
       </c>
       <c r="P38" t="n">
         <v>3418.758763931393</v>
@@ -7205,13 +7205,13 @@
         <v>3455.459806291492</v>
       </c>
       <c r="U38" t="n">
-        <v>3285.318664764113</v>
+        <v>3285.318664764112</v>
       </c>
       <c r="V38" t="n">
         <v>3037.809085898223</v>
       </c>
       <c r="W38" t="n">
-        <v>2768.593739105791</v>
+        <v>2768.59373910579</v>
       </c>
       <c r="X38" t="n">
         <v>2478.681289322392</v>
@@ -7254,22 +7254,22 @@
         <v>190.1641956615503</v>
       </c>
       <c r="K39" t="n">
-        <v>254.8646126176075</v>
+        <v>341.2911753664962</v>
       </c>
       <c r="L39" t="n">
-        <v>755.3167907479823</v>
+        <v>474.6114116464464</v>
       </c>
       <c r="M39" t="n">
-        <v>1003.293094265572</v>
+        <v>1110.594720360619</v>
       </c>
       <c r="N39" t="n">
-        <v>1671.816002121468</v>
+        <v>1779.117628216515</v>
       </c>
       <c r="O39" t="n">
-        <v>2216.96817800723</v>
+        <v>2324.269804102277</v>
       </c>
       <c r="P39" t="n">
-        <v>2637.497792942953</v>
+        <v>2429.521278084463</v>
       </c>
       <c r="Q39" t="n">
         <v>2657.936419551312</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>419.5025855012067</v>
+        <v>419.5025855012061</v>
       </c>
       <c r="C40" t="n">
-        <v>419.5025855012067</v>
+        <v>334.1197110509807</v>
       </c>
       <c r="D40" t="n">
-        <v>352.9392545665526</v>
+        <v>267.5563801163265</v>
       </c>
       <c r="E40" t="n">
-        <v>333.8713807044795</v>
+        <v>203.196595011615</v>
       </c>
       <c r="F40" t="n">
-        <v>270.5347416842507</v>
+        <v>158.274953385549</v>
       </c>
       <c r="G40" t="n">
-        <v>185.4658039375076</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="H40" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I40" t="n">
         <v>73.20601563880588</v>
@@ -7333,16 +7333,16 @@
         <v>136.5105320125877</v>
       </c>
       <c r="K40" t="n">
-        <v>317.6953254278777</v>
+        <v>317.6953254278778</v>
       </c>
       <c r="L40" t="n">
         <v>582.1747424683952</v>
       </c>
       <c r="M40" t="n">
-        <v>866.9687724192449</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N40" t="n">
-        <v>1152.372828683042</v>
+        <v>1152.372828683041</v>
       </c>
       <c r="O40" t="n">
         <v>1406.224749455342</v>
@@ -7369,13 +7369,13 @@
         <v>1005.137116499229</v>
       </c>
       <c r="W40" t="n">
-        <v>799.2732549399498</v>
+        <v>799.27325493995</v>
       </c>
       <c r="X40" t="n">
-        <v>654.8370125196138</v>
+        <v>654.8370125196142</v>
       </c>
       <c r="Y40" t="n">
-        <v>517.5977418537649</v>
+        <v>517.5977418537642</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1869.048734237823</v>
+        <v>1869.048734237822</v>
       </c>
       <c r="C41" t="n">
-        <v>1583.639525775093</v>
+        <v>1583.639525775092</v>
       </c>
       <c r="D41" t="n">
-        <v>1308.927135646024</v>
+        <v>1308.927135646023</v>
       </c>
       <c r="E41" t="n">
-        <v>1006.692191525461</v>
+        <v>1006.69219152546</v>
       </c>
       <c r="F41" t="n">
-        <v>679.2595952135349</v>
+        <v>679.2595952135343</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6907875499996</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H41" t="n">
         <v>110.6693538551414</v>
@@ -7488,25 +7488,25 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J42" t="n">
-        <v>190.1641956615503</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="K42" t="n">
-        <v>516.6851972600602</v>
+        <v>137.9064325948631</v>
       </c>
       <c r="L42" t="n">
-        <v>864.5351077304085</v>
+        <v>638.3586107252379</v>
       </c>
       <c r="M42" t="n">
-        <v>1500.518416444581</v>
+        <v>1274.34191943941</v>
       </c>
       <c r="N42" t="n">
-        <v>2169.041324300477</v>
+        <v>1942.864827295306</v>
       </c>
       <c r="O42" t="n">
-        <v>2324.269804102277</v>
+        <v>2216.96817800723</v>
       </c>
       <c r="P42" t="n">
-        <v>2429.521278084463</v>
+        <v>2637.497792942953</v>
       </c>
       <c r="Q42" t="n">
         <v>2657.936419551312</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>550.1773711940705</v>
+        <v>419.5025855012066</v>
       </c>
       <c r="C43" t="n">
-        <v>464.7944967438451</v>
+        <v>401.4578577236164</v>
       </c>
       <c r="D43" t="n">
-        <v>398.2311658091909</v>
+        <v>334.8945267889623</v>
       </c>
       <c r="E43" t="n">
-        <v>333.8713807044793</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="F43" t="n">
-        <v>270.5347416842505</v>
+        <v>270.5347416842507</v>
       </c>
       <c r="G43" t="n">
-        <v>185.4658039375074</v>
+        <v>185.4658039375075</v>
       </c>
       <c r="H43" t="n">
         <v>114.627538469752</v>
@@ -7567,22 +7567,22 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J43" t="n">
-        <v>136.5105320125875</v>
+        <v>136.5105320125876</v>
       </c>
       <c r="K43" t="n">
-        <v>317.6953254278776</v>
+        <v>317.6953254278779</v>
       </c>
       <c r="L43" t="n">
-        <v>582.1747424683949</v>
+        <v>582.1747424683952</v>
       </c>
       <c r="M43" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192447</v>
       </c>
       <c r="N43" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O43" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P43" t="n">
         <v>1611.737284042549</v>
@@ -7606,13 +7606,13 @@
         <v>1005.137116499228</v>
       </c>
       <c r="W43" t="n">
-        <v>929.9480406328131</v>
+        <v>799.2732549399492</v>
       </c>
       <c r="X43" t="n">
-        <v>785.5117982124773</v>
+        <v>654.8370125196134</v>
       </c>
       <c r="Y43" t="n">
-        <v>648.2725275466287</v>
+        <v>517.5977418537648</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>1006.69219152546</v>
       </c>
       <c r="F44" t="n">
-        <v>679.2595952135342</v>
+        <v>679.2595952135345</v>
       </c>
       <c r="G44" t="n">
-        <v>345.690787549999</v>
+        <v>345.6907875499992</v>
       </c>
       <c r="H44" t="n">
         <v>110.6693538551414</v>
@@ -7646,10 +7646,10 @@
         <v>73.20601563880588</v>
       </c>
       <c r="J44" t="n">
-        <v>258.9898176069163</v>
+        <v>258.9898176069164</v>
       </c>
       <c r="K44" t="n">
-        <v>658.1763815223501</v>
+        <v>658.1763815223503</v>
       </c>
       <c r="L44" t="n">
         <v>1205.679240092235</v>
@@ -7691,7 +7691,7 @@
         <v>2478.681289322393</v>
       </c>
       <c r="Y44" t="n">
-        <v>2172.095265824262</v>
+        <v>2172.095265824263</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>190.1641956615503</v>
       </c>
       <c r="K45" t="n">
-        <v>516.6851972600602</v>
+        <v>254.8646126176075</v>
       </c>
       <c r="L45" t="n">
-        <v>1017.137375390435</v>
+        <v>755.3167907479823</v>
       </c>
       <c r="M45" t="n">
-        <v>1269.865530007199</v>
+        <v>1391.300099462155</v>
       </c>
       <c r="N45" t="n">
-        <v>1463.839487262977</v>
+        <v>1585.274056717933</v>
       </c>
       <c r="O45" t="n">
-        <v>2008.991663148739</v>
+        <v>2130.426232603695</v>
       </c>
       <c r="P45" t="n">
-        <v>2429.521278084463</v>
+        <v>2550.955847539419</v>
       </c>
       <c r="Q45" t="n">
         <v>2657.936419551312</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>419.5025855012073</v>
+        <v>419.502585501207</v>
       </c>
       <c r="C46" t="n">
-        <v>419.5025855012073</v>
+        <v>334.1197110509816</v>
       </c>
       <c r="D46" t="n">
-        <v>352.9392545665531</v>
+        <v>267.5563801163274</v>
       </c>
       <c r="E46" t="n">
-        <v>288.5794694618415</v>
+        <v>203.1965950116158</v>
       </c>
       <c r="F46" t="n">
-        <v>270.5347416842507</v>
+        <v>203.1965950116158</v>
       </c>
       <c r="G46" t="n">
-        <v>185.4658039375076</v>
+        <v>144.0442811065615</v>
       </c>
       <c r="H46" t="n">
-        <v>114.627538469752</v>
+        <v>73.20601563880588</v>
       </c>
       <c r="I46" t="n">
         <v>73.20601563880588</v>
@@ -7810,16 +7810,16 @@
         <v>317.6953254278777</v>
       </c>
       <c r="L46" t="n">
-        <v>582.1747424683947</v>
+        <v>582.1747424683949</v>
       </c>
       <c r="M46" t="n">
-        <v>866.9687724192445</v>
+        <v>866.9687724192446</v>
       </c>
       <c r="N46" t="n">
         <v>1152.372828683041</v>
       </c>
       <c r="O46" t="n">
-        <v>1406.224749455341</v>
+        <v>1406.224749455342</v>
       </c>
       <c r="P46" t="n">
         <v>1611.737284042549</v>
@@ -7840,16 +7840,16 @@
         <v>1176.268296227434</v>
       </c>
       <c r="V46" t="n">
-        <v>1005.137116499229</v>
+        <v>1005.137116499228</v>
       </c>
       <c r="W46" t="n">
-        <v>799.2732549399499</v>
+        <v>799.2732549399493</v>
       </c>
       <c r="X46" t="n">
-        <v>654.8370125196141</v>
+        <v>654.8370125196135</v>
       </c>
       <c r="Y46" t="n">
-        <v>517.5977418537655</v>
+        <v>517.5977418537652</v>
       </c>
     </row>
   </sheetData>
@@ -8067,16 +8067,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8778,13 +8778,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>472.4409647465192</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>182.164276778751</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>119.189625743374</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9012,13 +9012,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>78.57864546978945</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9249,19 +9249,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>78.57864546978945</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>321.3154539193645</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,19 +9477,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>78.57864546978951</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>97.05365320867234</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,19 +9714,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>105.0051127685318</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>461.1834582629177</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,22 +9954,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>78.57864546978951</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>87.29955833221049</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10191,13 +10191,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>248.1791640358272</v>
       </c>
       <c r="M30" t="n">
-        <v>78.57864546978945</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10434,13 +10434,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>78.57864546978945</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>6.735900996518836</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720737</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>162.6991089690031</v>
       </c>
       <c r="M36" t="n">
-        <v>78.57864546978945</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>87.29955833221081</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>73.77879587466347</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>7.951459559858918</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>216.6966405963617</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>120.0756271819428</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11376,13 +11376,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>78.57864546978945</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>87.41610646821671</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19.13177750651317</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>214.7341842558619</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>290.4347245022874</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,16 +23306,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.4731875638753</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>187.8463886171958</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>226.2032352564837</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>302.7979882216086</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>361.2836684075273</v>
       </c>
     </row>
     <row r="12">
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>154.877709933411</v>
       </c>
       <c r="C13" t="n">
-        <v>142.2925508501015</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>123.661202769686</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>104.9044813177992</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>198.4837816320203</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>261.3072160754403</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>222.9791059442816</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>200.7553851405108</v>
       </c>
       <c r="Y13" t="n">
-        <v>65.25455424641103</v>
+        <v>193.6303831035685</v>
       </c>
     </row>
     <row r="14">
@@ -23495,16 +23495,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>340.3186215224812</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>329.7287713721566</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>356.9760998237354</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>84.89549599123299</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>94.85220997855046</v>
+        <v>94.85220997855048</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>187.8463886171957</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>226.2032352564837</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.23212179096416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>154.8777099334109</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>142.2925508501014</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>75.84717274261678</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>120.4667777744049</v>
       </c>
       <c r="G16" t="n">
         <v>141.981753513654</v>
@@ -23671,7 +23671,7 @@
         <v>127.8933879574564</v>
       </c>
       <c r="I16" t="n">
-        <v>56.5744516325863</v>
+        <v>98.77081274701499</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>104.9044813177992</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>180.67732889694</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>261.3072160754402</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>227.1833730753016</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>261.5687280880646</v>
       </c>
       <c r="X16" t="n">
         <v>200.7553851405108</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>63.71618725366442</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4.142481864022518</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>84.21824836927566</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>41.00730760263666</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>65.6518505822705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.11420478903254</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>41.00730760263667</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>32.25383304690197</v>
+        <v>25.65745760327195</v>
       </c>
     </row>
     <row r="23">
@@ -24361,16 +24361,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44.83899213021152</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>84.52904570572308</v>
+        <v>84.52904570572309</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>3.831684527575676</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>41.00730760263664</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.11420478903254</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>4.142481864023418</v>
       </c>
       <c r="D28" t="n">
-        <v>32.253833046902</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>84.21824836927567</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>41.00730760263667</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>63.71618725366449</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>62.70327263002656</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.948577952245358</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6.454214083374495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>122.9138237525618</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>65.89769762530764</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>70.12988281307804</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>12.09717884943699</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>47.14097617342085</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>63.47034021062731</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>59.23815502285755</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>63.71618725366444</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>62.70327263002652</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>70.12988281307803</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>2.948577952243582</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>84.52904570572311</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>44.83899213021205</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>18.23084742022118</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>70.12988281307803</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>41.00730760263666</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>66.66476520590882</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>129.3680378359352</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>84.52904570572312</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,16 +26032,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>44.83899213021159</v>
+        <v>62.70327263002653</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>25.65745760327184</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.00730760263667</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>845884.841038865</v>
+        <v>845884.8410388649</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>845884.841038865</v>
+        <v>845884.8410388649</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>845884.8410388649</v>
+        <v>845884.8410388648</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.37164482</v>
       </c>
       <c r="E2" t="n">
+        <v>554835.0826296237</v>
+      </c>
+      <c r="F2" t="n">
         <v>554835.0826296241</v>
-      </c>
-      <c r="F2" t="n">
-        <v>554835.0826296236</v>
       </c>
       <c r="G2" t="n">
         <v>633901.1261410717</v>
       </c>
       <c r="H2" t="n">
-        <v>633901.1261410714</v>
+        <v>633901.1261410716</v>
       </c>
       <c r="I2" t="n">
+        <v>633901.1261410711</v>
+      </c>
+      <c r="J2" t="n">
         <v>633901.1261410716</v>
-      </c>
-      <c r="J2" t="n">
-        <v>633901.1261410717</v>
       </c>
       <c r="K2" t="n">
         <v>633901.1261410716</v>
       </c>
       <c r="L2" t="n">
-        <v>633901.1261410717</v>
+        <v>633901.1261410718</v>
       </c>
       <c r="M2" t="n">
         <v>633901.1261410716</v>
       </c>
       <c r="N2" t="n">
+        <v>633901.1261410713</v>
+      </c>
+      <c r="O2" t="n">
         <v>633901.1261410716</v>
       </c>
-      <c r="O2" t="n">
-        <v>633901.1261410717</v>
-      </c>
       <c r="P2" t="n">
-        <v>633901.1261410716</v>
+        <v>633901.1261410714</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>691230.6639893664</v>
+        <v>691230.6639893666</v>
       </c>
       <c r="F3" t="n">
-        <v>4.80213202536106e-11</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>46210.80411550269</v>
+        <v>46210.80411550267</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46210.80411550271</v>
+        <v>46210.80411550272</v>
       </c>
       <c r="M3" t="n">
         <v>167978.6741701941</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19963.41619882106</v>
+        <v>19963.41619882103</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,28 +26418,28 @@
         <v>329330.531561994</v>
       </c>
       <c r="C4" t="n">
-        <v>329330.531561994</v>
+        <v>329330.5315619939</v>
       </c>
       <c r="D4" t="n">
         <v>329330.531561994</v>
       </c>
       <c r="E4" t="n">
-        <v>74344.62154449182</v>
+        <v>74344.62154449179</v>
       </c>
       <c r="F4" t="n">
-        <v>74344.62154449188</v>
+        <v>74344.62154449186</v>
       </c>
       <c r="G4" t="n">
         <v>132717.2846572828</v>
       </c>
       <c r="H4" t="n">
-        <v>132717.2846572828</v>
+        <v>132717.2846572827</v>
       </c>
       <c r="I4" t="n">
         <v>132717.2846572828</v>
       </c>
       <c r="J4" t="n">
-        <v>132717.2846572828</v>
+        <v>132717.2846572827</v>
       </c>
       <c r="K4" t="n">
         <v>132717.2846572827</v>
@@ -26476,7 +26476,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>70487.90653947927</v>
+        <v>70487.90653947929</v>
       </c>
       <c r="F5" t="n">
         <v>70487.90653947929</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>177926.1397875168</v>
+        <v>177926.1397875163</v>
       </c>
       <c r="C6" t="n">
-        <v>258695.5713190641</v>
+        <v>258695.571319064</v>
       </c>
       <c r="D6" t="n">
-        <v>258695.5713190641</v>
+        <v>258695.5713190643</v>
       </c>
       <c r="E6" t="n">
-        <v>-281228.1094437134</v>
+        <v>-281490.9232792468</v>
       </c>
       <c r="F6" t="n">
-        <v>410002.5545456525</v>
+        <v>409739.7407101201</v>
       </c>
       <c r="G6" t="n">
-        <v>379629.0107148241</v>
+        <v>379621.2486325541</v>
       </c>
       <c r="H6" t="n">
-        <v>425839.8148303266</v>
+        <v>425832.0527480567</v>
       </c>
       <c r="I6" t="n">
-        <v>425839.8148303268</v>
+        <v>425832.0527480561</v>
       </c>
       <c r="J6" t="n">
-        <v>342816.4560323996</v>
+        <v>342808.6939501294</v>
       </c>
       <c r="K6" t="n">
-        <v>425839.8148303268</v>
+        <v>425832.0527480567</v>
       </c>
       <c r="L6" t="n">
-        <v>379629.0107148242</v>
+        <v>379621.2486325541</v>
       </c>
       <c r="M6" t="n">
-        <v>257861.1406601327</v>
+        <v>257853.3785778625</v>
       </c>
       <c r="N6" t="n">
-        <v>425839.8148303268</v>
+        <v>425832.0527480564</v>
       </c>
       <c r="O6" t="n">
-        <v>405876.3986315059</v>
+        <v>405868.6365492356</v>
       </c>
       <c r="P6" t="n">
-        <v>425839.8148303268</v>
+        <v>425832.0527480565</v>
       </c>
     </row>
   </sheetData>
@@ -26695,22 +26695,22 @@
         <v>24.95427024852633</v>
       </c>
       <c r="F2" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="G2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="H2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="J2" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K2" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="L2" t="n">
         <v>82.71777539290471</v>
@@ -26744,22 +26744,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>585.0208306634613</v>
+        <v>585.0208306634615</v>
       </c>
       <c r="F3" t="n">
-        <v>585.0208306634614</v>
+        <v>585.0208306634615</v>
       </c>
       <c r="G3" t="n">
         <v>585.0208306634614</v>
       </c>
       <c r="H3" t="n">
-        <v>585.0208306634613</v>
+        <v>585.0208306634614</v>
       </c>
       <c r="I3" t="n">
-        <v>585.0208306634613</v>
+        <v>585.0208306634614</v>
       </c>
       <c r="J3" t="n">
-        <v>585.0208306634613</v>
+        <v>585.0208306634614</v>
       </c>
       <c r="K3" t="n">
         <v>585.0208306634614</v>
@@ -26796,22 +26796,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>915.0751954850733</v>
+        <v>915.0751954850734</v>
       </c>
       <c r="F4" t="n">
-        <v>915.0751954850733</v>
+        <v>915.0751954850734</v>
       </c>
       <c r="G4" t="n">
-        <v>915.0751954850733</v>
+        <v>915.0751954850734</v>
       </c>
       <c r="H4" t="n">
-        <v>915.0751954850733</v>
+        <v>915.0751954850734</v>
       </c>
       <c r="I4" t="n">
         <v>915.0751954850733</v>
       </c>
       <c r="J4" t="n">
-        <v>915.0751954850733</v>
+        <v>915.0751954850734</v>
       </c>
       <c r="K4" t="n">
         <v>915.0751954850734</v>
@@ -26917,10 +26917,10 @@
         <v>24.95427024852633</v>
       </c>
       <c r="F2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>57.76350514437836</v>
+        <v>57.76350514437834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.95427024852633</v>
+        <v>24.9542702485263</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437839</v>
+        <v>57.7635051443784</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852632</v>
+        <v>24.95427024852629</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>585.0208306634613</v>
+        <v>585.0208306634615</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>674.0609066074143</v>
+        <v>674.0609066074144</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.0609066074143</v>
+        <v>674.0609066074144</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>24.95427024852633</v>
       </c>
       <c r="K2" t="n">
-        <v>6.002665031701325e-14</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>57.76350514437836</v>
+        <v>57.76350514437834</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.95427024852633</v>
+        <v>24.9542702485263</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>674.0609066074143</v>
+        <v>674.0609066074144</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,7 +27382,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>349.7082848322977</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>150.5359555927217</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,28 +27458,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>94.90242310444953</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27518,13 +27518,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>165.1928453213537</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>13.24699506120115</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27582,7 +27582,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>124.2586028933485</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>179.3549983061513</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27637,7 +27637,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,10 +27658,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27676,7 +27676,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>300.4050735338714</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -27749,13 +27749,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>175.9517437815738</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>158.425855150396</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27789,13 +27789,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>122.3993850387443</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -27828,7 +27828,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27859,22 +27859,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>310.9156916318736</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,28 +27895,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>105.6514367921257</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27950,10 +27950,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -27986,16 +27986,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>85.56267508295639</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>109.2483036843516</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28026,7 +28026,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28056,7 +28056,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.135189281195295</v>
+        <v>2.135189281195238</v>
       </c>
       <c r="S11" t="n">
         <v>24.95427024852633</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="C14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="D14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="E14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="F14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="G14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="H14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="I14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.135189281195267</v>
+        <v>2.135189281195238</v>
       </c>
       <c r="S14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="T14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="U14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="V14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="W14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="X14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="Y14" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="C16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="D16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="E16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="F16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="G16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="H16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="I16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="J16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="K16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="L16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="M16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="N16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="O16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="P16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="R16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="S16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="T16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="U16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="V16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="W16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="X16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
       <c r="Y16" t="n">
-        <v>24.9542702485264</v>
+        <v>24.95427024852638</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="C17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="D17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="E17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="F17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="G17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="H17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="I17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="T17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="U17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="V17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="W17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="X17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="C19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="D19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="E19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="F19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="G19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="H19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="I19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="J19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="K19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="L19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="M19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="N19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="O19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="P19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="R19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="S19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="T19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="U19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="V19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="W19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="X19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290473</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>2.135189281195295</v>
+        <v>2.135189281195267</v>
       </c>
       <c r="S20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="C23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="D23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="E23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="F23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="G23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="H23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="I23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>2.135189281195295</v>
+        <v>2.135189281195267</v>
       </c>
       <c r="S23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="T23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="U23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="V23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="W23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="X23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="C25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="D25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="E25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="F25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="G25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="H25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="I25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="J25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="K25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="L25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="M25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="N25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="O25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="P25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="R25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="S25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="T25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="U25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="V25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="W25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="X25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290474</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29320,28 +29320,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>2.135189281195295</v>
+        <v>2.135189281195267</v>
       </c>
       <c r="S26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y26" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="C28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="D28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="E28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="F28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="G28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="H28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="I28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="J28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="K28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="L28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="M28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="N28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="O28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="P28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="R28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="S28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="T28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="U28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="V28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="W28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="X28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
       <c r="Y28" t="n">
-        <v>82.71777539290476</v>
+        <v>82.71777539290471</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="C29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="D29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="E29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="F29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="G29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="H29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="I29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>2.135189281195267</v>
       </c>
       <c r="S29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="T29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="U29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="V29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="W29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="X29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Y29" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="C31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="D31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="E31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="F31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="G31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="H31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="I31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="J31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="K31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="L31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="M31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="N31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="O31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="P31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="R31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="S31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="T31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="U31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="V31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="W31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="X31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
       <c r="Y31" t="n">
-        <v>82.71777539290468</v>
+        <v>82.71777539290466</v>
       </c>
     </row>
     <row r="32">
@@ -29782,7 +29782,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.351842535330496</v>
+        <v>2.351842535330497</v>
       </c>
       <c r="H11" t="n">
-        <v>24.08580736495345</v>
+        <v>24.08580736495346</v>
       </c>
       <c r="I11" t="n">
-        <v>90.66940934332904</v>
+        <v>90.66940934332906</v>
       </c>
       <c r="J11" t="n">
         <v>199.6096953830069</v>
       </c>
       <c r="K11" t="n">
-        <v>299.1631899035468</v>
+        <v>299.1631899035469</v>
       </c>
       <c r="L11" t="n">
-        <v>371.1383908941676</v>
+        <v>371.1383908941677</v>
       </c>
       <c r="M11" t="n">
-        <v>412.9629705818513</v>
+        <v>412.9629705818514</v>
       </c>
       <c r="N11" t="n">
-        <v>419.6451431853591</v>
+        <v>419.6451431853592</v>
       </c>
       <c r="O11" t="n">
-        <v>396.2590089746664</v>
+        <v>396.2590089746666</v>
       </c>
       <c r="P11" t="n">
-        <v>338.1978963836947</v>
+        <v>338.1978963836949</v>
       </c>
       <c r="Q11" t="n">
-        <v>253.9725355871713</v>
+        <v>253.9725355871714</v>
       </c>
       <c r="R11" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S11" t="n">
-        <v>53.59261177384373</v>
+        <v>53.59261177384375</v>
       </c>
       <c r="T11" t="n">
-        <v>10.29519069840925</v>
+        <v>10.29519069840926</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1881474028264396</v>
+        <v>0.1881474028264397</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I12" t="n">
-        <v>43.32465585573747</v>
+        <v>43.32465585573749</v>
       </c>
       <c r="J12" t="n">
         <v>118.8861671068078</v>
       </c>
       <c r="K12" t="n">
-        <v>203.1953954956288</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L12" t="n">
-        <v>273.2212851131571</v>
+        <v>273.2212851131573</v>
       </c>
       <c r="M12" t="n">
-        <v>318.8363527115864</v>
+        <v>318.8363527115865</v>
       </c>
       <c r="N12" t="n">
-        <v>327.2750022406848</v>
+        <v>327.275002240685</v>
       </c>
       <c r="O12" t="n">
-        <v>299.3926886886866</v>
+        <v>299.3926886886867</v>
       </c>
       <c r="P12" t="n">
-        <v>240.2890275983564</v>
+        <v>240.2890275983565</v>
       </c>
       <c r="Q12" t="n">
         <v>160.6268514682017</v>
       </c>
       <c r="R12" t="n">
-        <v>78.12787621577323</v>
+        <v>78.12787621577326</v>
       </c>
       <c r="S12" t="n">
-        <v>23.37323790433733</v>
+        <v>23.37323790433734</v>
       </c>
       <c r="T12" t="n">
-        <v>5.072020220563403</v>
+        <v>5.072020220563405</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08278596660332004</v>
+        <v>0.08278596660332006</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,19 +31911,19 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H13" t="n">
-        <v>9.379514301456812</v>
+        <v>9.379514301456815</v>
       </c>
       <c r="I13" t="n">
-        <v>31.72539193171689</v>
+        <v>31.7253919317169</v>
       </c>
       <c r="J13" t="n">
-        <v>74.58536065688095</v>
+        <v>74.58536065688098</v>
       </c>
       <c r="K13" t="n">
         <v>122.5666592767055</v>
       </c>
       <c r="L13" t="n">
-        <v>156.8431256503319</v>
+        <v>156.843125650332</v>
       </c>
       <c r="M13" t="n">
         <v>165.3690849693453</v>
@@ -31938,19 +31938,19 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.33814543018265</v>
+        <v>88.33814543018269</v>
       </c>
       <c r="R13" t="n">
-        <v>47.43463981084391</v>
+        <v>47.43463981084393</v>
       </c>
       <c r="S13" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T13" t="n">
-        <v>4.507537547734864</v>
+        <v>4.507537547734866</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05754303252427494</v>
+        <v>0.05754303252427496</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,13 +31987,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.351842535330496</v>
+        <v>2.351842535330497</v>
       </c>
       <c r="H14" t="n">
-        <v>24.08580736495345</v>
+        <v>24.08580736495346</v>
       </c>
       <c r="I14" t="n">
-        <v>90.66940934332905</v>
+        <v>90.66940934332906</v>
       </c>
       <c r="J14" t="n">
         <v>199.6096953830069</v>
@@ -32002,31 +32002,31 @@
         <v>299.1631899035469</v>
       </c>
       <c r="L14" t="n">
-        <v>371.1383908941676</v>
+        <v>371.1383908941677</v>
       </c>
       <c r="M14" t="n">
-        <v>412.9629705818513</v>
+        <v>412.9629705818514</v>
       </c>
       <c r="N14" t="n">
-        <v>419.6451431853591</v>
+        <v>419.6451431853592</v>
       </c>
       <c r="O14" t="n">
-        <v>396.2590089746665</v>
+        <v>396.2590089746666</v>
       </c>
       <c r="P14" t="n">
-        <v>338.1978963836948</v>
+        <v>338.1978963836949</v>
       </c>
       <c r="Q14" t="n">
-        <v>253.9725355871713</v>
+        <v>253.9725355871714</v>
       </c>
       <c r="R14" t="n">
         <v>147.7339286599544</v>
       </c>
       <c r="S14" t="n">
-        <v>53.59261177384374</v>
+        <v>53.59261177384375</v>
       </c>
       <c r="T14" t="n">
-        <v>10.29519069840925</v>
+        <v>10.29519069840926</v>
       </c>
       <c r="U14" t="n">
         <v>0.1881474028264397</v>
@@ -32072,7 +32072,7 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I15" t="n">
-        <v>43.32465585573748</v>
+        <v>43.32465585573749</v>
       </c>
       <c r="J15" t="n">
         <v>118.8861671068078</v>
@@ -32081,13 +32081,13 @@
         <v>203.1953954956289</v>
       </c>
       <c r="L15" t="n">
-        <v>273.2212851131572</v>
+        <v>273.2212851131573</v>
       </c>
       <c r="M15" t="n">
-        <v>318.8363527115864</v>
+        <v>318.8363527115865</v>
       </c>
       <c r="N15" t="n">
-        <v>327.2750022406849</v>
+        <v>327.275002240685</v>
       </c>
       <c r="O15" t="n">
         <v>299.3926886886867</v>
@@ -32099,16 +32099,16 @@
         <v>160.6268514682017</v>
       </c>
       <c r="R15" t="n">
-        <v>78.12787621577324</v>
+        <v>78.12787621577326</v>
       </c>
       <c r="S15" t="n">
         <v>23.37323790433734</v>
       </c>
       <c r="T15" t="n">
-        <v>5.072020220563404</v>
+        <v>5.072020220563405</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08278596660332005</v>
+        <v>0.08278596660332006</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,13 +32148,13 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H16" t="n">
-        <v>9.379514301456814</v>
+        <v>9.379514301456815</v>
       </c>
       <c r="I16" t="n">
         <v>31.7253919317169</v>
       </c>
       <c r="J16" t="n">
-        <v>74.58536065688097</v>
+        <v>74.58536065688098</v>
       </c>
       <c r="K16" t="n">
         <v>122.5666592767055</v>
@@ -32175,16 +32175,16 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q16" t="n">
-        <v>88.33814543018268</v>
+        <v>88.33814543018269</v>
       </c>
       <c r="R16" t="n">
-        <v>47.43463981084392</v>
+        <v>47.43463981084393</v>
       </c>
       <c r="S16" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T16" t="n">
-        <v>4.507537547734865</v>
+        <v>4.507537547734866</v>
       </c>
       <c r="U16" t="n">
         <v>0.05754303252427496</v>
@@ -32467,13 +32467,13 @@
         <v>24.08580736495345</v>
       </c>
       <c r="I20" t="n">
-        <v>90.66940934332904</v>
+        <v>90.66940934332905</v>
       </c>
       <c r="J20" t="n">
         <v>199.6096953830069</v>
       </c>
       <c r="K20" t="n">
-        <v>299.1631899035468</v>
+        <v>299.1631899035469</v>
       </c>
       <c r="L20" t="n">
         <v>371.1383908941676</v>
@@ -32485,10 +32485,10 @@
         <v>419.6451431853591</v>
       </c>
       <c r="O20" t="n">
-        <v>396.2590089746664</v>
+        <v>396.2590089746665</v>
       </c>
       <c r="P20" t="n">
-        <v>338.1978963836947</v>
+        <v>338.1978963836948</v>
       </c>
       <c r="Q20" t="n">
         <v>253.9725355871713</v>
@@ -32497,13 +32497,13 @@
         <v>147.7339286599544</v>
       </c>
       <c r="S20" t="n">
-        <v>53.59261177384373</v>
+        <v>53.59261177384374</v>
       </c>
       <c r="T20" t="n">
         <v>10.29519069840925</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1881474028264396</v>
+        <v>0.1881474028264397</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,43 +32546,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I21" t="n">
-        <v>43.32465585573747</v>
+        <v>43.32465585573748</v>
       </c>
       <c r="J21" t="n">
         <v>118.8861671068078</v>
       </c>
       <c r="K21" t="n">
-        <v>203.1953954956288</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L21" t="n">
-        <v>273.2212851131571</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M21" t="n">
         <v>318.8363527115864</v>
       </c>
       <c r="N21" t="n">
-        <v>327.2750022406848</v>
+        <v>327.2750022406849</v>
       </c>
       <c r="O21" t="n">
-        <v>299.3926886886866</v>
+        <v>299.3926886886867</v>
       </c>
       <c r="P21" t="n">
-        <v>240.2890275983564</v>
+        <v>240.2890275983565</v>
       </c>
       <c r="Q21" t="n">
         <v>160.6268514682017</v>
       </c>
       <c r="R21" t="n">
-        <v>78.12787621577323</v>
+        <v>78.12787621577324</v>
       </c>
       <c r="S21" t="n">
-        <v>23.37323790433733</v>
+        <v>23.37323790433734</v>
       </c>
       <c r="T21" t="n">
-        <v>5.072020220563403</v>
+        <v>5.072020220563404</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08278596660332004</v>
+        <v>0.08278596660332005</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,19 +32622,19 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H22" t="n">
-        <v>9.379514301456812</v>
+        <v>9.379514301456814</v>
       </c>
       <c r="I22" t="n">
-        <v>31.72539193171689</v>
+        <v>31.7253919317169</v>
       </c>
       <c r="J22" t="n">
-        <v>74.58536065688095</v>
+        <v>74.58536065688097</v>
       </c>
       <c r="K22" t="n">
         <v>122.5666592767055</v>
       </c>
       <c r="L22" t="n">
-        <v>156.8431256503319</v>
+        <v>156.843125650332</v>
       </c>
       <c r="M22" t="n">
         <v>165.3690849693453</v>
@@ -32649,19 +32649,19 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q22" t="n">
-        <v>88.33814543018265</v>
+        <v>88.33814543018268</v>
       </c>
       <c r="R22" t="n">
-        <v>47.43463981084391</v>
+        <v>47.43463981084392</v>
       </c>
       <c r="S22" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T22" t="n">
-        <v>4.507537547734864</v>
+        <v>4.507537547734865</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05754303252427494</v>
+        <v>0.05754303252427496</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32704,13 +32704,13 @@
         <v>24.08580736495345</v>
       </c>
       <c r="I23" t="n">
-        <v>90.66940934332904</v>
+        <v>90.66940934332905</v>
       </c>
       <c r="J23" t="n">
         <v>199.6096953830069</v>
       </c>
       <c r="K23" t="n">
-        <v>299.1631899035468</v>
+        <v>299.1631899035469</v>
       </c>
       <c r="L23" t="n">
         <v>371.1383908941676</v>
@@ -32722,10 +32722,10 @@
         <v>419.6451431853591</v>
       </c>
       <c r="O23" t="n">
-        <v>396.2590089746664</v>
+        <v>396.2590089746665</v>
       </c>
       <c r="P23" t="n">
-        <v>338.1978963836947</v>
+        <v>338.1978963836948</v>
       </c>
       <c r="Q23" t="n">
         <v>253.9725355871713</v>
@@ -32734,13 +32734,13 @@
         <v>147.7339286599544</v>
       </c>
       <c r="S23" t="n">
-        <v>53.59261177384373</v>
+        <v>53.59261177384374</v>
       </c>
       <c r="T23" t="n">
         <v>10.29519069840925</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1881474028264396</v>
+        <v>0.1881474028264397</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32783,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I24" t="n">
-        <v>43.32465585573747</v>
+        <v>43.32465585573748</v>
       </c>
       <c r="J24" t="n">
         <v>118.8861671068078</v>
       </c>
       <c r="K24" t="n">
-        <v>203.1953954956288</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L24" t="n">
-        <v>273.2212851131571</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M24" t="n">
         <v>318.8363527115864</v>
       </c>
       <c r="N24" t="n">
-        <v>327.2750022406848</v>
+        <v>327.2750022406849</v>
       </c>
       <c r="O24" t="n">
-        <v>299.3926886886866</v>
+        <v>299.3926886886867</v>
       </c>
       <c r="P24" t="n">
-        <v>240.2890275983564</v>
+        <v>240.2890275983565</v>
       </c>
       <c r="Q24" t="n">
         <v>160.6268514682017</v>
       </c>
       <c r="R24" t="n">
-        <v>78.12787621577323</v>
+        <v>78.12787621577324</v>
       </c>
       <c r="S24" t="n">
-        <v>23.37323790433733</v>
+        <v>23.37323790433734</v>
       </c>
       <c r="T24" t="n">
-        <v>5.072020220563403</v>
+        <v>5.072020220563404</v>
       </c>
       <c r="U24" t="n">
-        <v>0.08278596660332004</v>
+        <v>0.08278596660332005</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,19 +32859,19 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H25" t="n">
-        <v>9.379514301456812</v>
+        <v>9.379514301456814</v>
       </c>
       <c r="I25" t="n">
-        <v>31.72539193171689</v>
+        <v>31.7253919317169</v>
       </c>
       <c r="J25" t="n">
-        <v>74.58536065688095</v>
+        <v>74.58536065688097</v>
       </c>
       <c r="K25" t="n">
         <v>122.5666592767055</v>
       </c>
       <c r="L25" t="n">
-        <v>156.8431256503319</v>
+        <v>156.843125650332</v>
       </c>
       <c r="M25" t="n">
         <v>165.3690849693453</v>
@@ -32886,19 +32886,19 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q25" t="n">
-        <v>88.33814543018265</v>
+        <v>88.33814543018268</v>
       </c>
       <c r="R25" t="n">
-        <v>47.43463981084391</v>
+        <v>47.43463981084392</v>
       </c>
       <c r="S25" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T25" t="n">
-        <v>4.507537547734864</v>
+        <v>4.507537547734865</v>
       </c>
       <c r="U25" t="n">
-        <v>0.05754303252427494</v>
+        <v>0.05754303252427496</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,13 +32941,13 @@
         <v>24.08580736495345</v>
       </c>
       <c r="I26" t="n">
-        <v>90.66940934332904</v>
+        <v>90.66940934332905</v>
       </c>
       <c r="J26" t="n">
         <v>199.6096953830069</v>
       </c>
       <c r="K26" t="n">
-        <v>299.1631899035468</v>
+        <v>299.1631899035469</v>
       </c>
       <c r="L26" t="n">
         <v>371.1383908941676</v>
@@ -32959,10 +32959,10 @@
         <v>419.6451431853591</v>
       </c>
       <c r="O26" t="n">
-        <v>396.2590089746664</v>
+        <v>396.2590089746665</v>
       </c>
       <c r="P26" t="n">
-        <v>338.1978963836947</v>
+        <v>338.1978963836948</v>
       </c>
       <c r="Q26" t="n">
         <v>253.9725355871713</v>
@@ -32971,13 +32971,13 @@
         <v>147.7339286599544</v>
       </c>
       <c r="S26" t="n">
-        <v>53.59261177384373</v>
+        <v>53.59261177384374</v>
       </c>
       <c r="T26" t="n">
         <v>10.29519069840925</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1881474028264396</v>
+        <v>0.1881474028264397</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>12.15297989736738</v>
       </c>
       <c r="I27" t="n">
-        <v>43.32465585573747</v>
+        <v>43.32465585573748</v>
       </c>
       <c r="J27" t="n">
         <v>118.8861671068078</v>
       </c>
       <c r="K27" t="n">
-        <v>203.1953954956288</v>
+        <v>203.1953954956289</v>
       </c>
       <c r="L27" t="n">
-        <v>273.2212851131571</v>
+        <v>273.2212851131572</v>
       </c>
       <c r="M27" t="n">
         <v>318.8363527115864</v>
       </c>
       <c r="N27" t="n">
-        <v>327.2750022406848</v>
+        <v>327.2750022406849</v>
       </c>
       <c r="O27" t="n">
-        <v>299.3926886886866</v>
+        <v>299.3926886886867</v>
       </c>
       <c r="P27" t="n">
-        <v>240.2890275983564</v>
+        <v>240.2890275983565</v>
       </c>
       <c r="Q27" t="n">
         <v>160.6268514682017</v>
       </c>
       <c r="R27" t="n">
-        <v>78.12787621577323</v>
+        <v>78.12787621577324</v>
       </c>
       <c r="S27" t="n">
-        <v>23.37323790433733</v>
+        <v>23.37323790433734</v>
       </c>
       <c r="T27" t="n">
-        <v>5.072020220563403</v>
+        <v>5.072020220563404</v>
       </c>
       <c r="U27" t="n">
-        <v>0.08278596660332004</v>
+        <v>0.08278596660332005</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,19 +33096,19 @@
         <v>1.054955596278373</v>
       </c>
       <c r="H28" t="n">
-        <v>9.379514301456812</v>
+        <v>9.379514301456814</v>
       </c>
       <c r="I28" t="n">
-        <v>31.72539193171689</v>
+        <v>31.7253919317169</v>
       </c>
       <c r="J28" t="n">
-        <v>74.58536065688095</v>
+        <v>74.58536065688097</v>
       </c>
       <c r="K28" t="n">
         <v>122.5666592767055</v>
       </c>
       <c r="L28" t="n">
-        <v>156.8431256503319</v>
+        <v>156.843125650332</v>
       </c>
       <c r="M28" t="n">
         <v>165.3690849693453</v>
@@ -33123,19 +33123,19 @@
         <v>127.5920841171588</v>
       </c>
       <c r="Q28" t="n">
-        <v>88.33814543018265</v>
+        <v>88.33814543018268</v>
       </c>
       <c r="R28" t="n">
-        <v>47.43463981084391</v>
+        <v>47.43463981084392</v>
       </c>
       <c r="S28" t="n">
         <v>18.38499889150582</v>
       </c>
       <c r="T28" t="n">
-        <v>4.507537547734864</v>
+        <v>4.507537547734865</v>
       </c>
       <c r="U28" t="n">
-        <v>0.05754303252427494</v>
+        <v>0.05754303252427496</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283944</v>
       </c>
       <c r="K11" t="n">
-        <v>403.218751429731</v>
+        <v>403.2187514297311</v>
       </c>
       <c r="L11" t="n">
         <v>553.0331904746308</v>
       </c>
       <c r="M11" t="n">
-        <v>632.130270847411</v>
+        <v>632.1302708474111</v>
       </c>
       <c r="N11" t="n">
-        <v>627.5790040007523</v>
+        <v>627.5790040007525</v>
       </c>
       <c r="O11" t="n">
-        <v>546.9609788157251</v>
+        <v>546.9609788157252</v>
       </c>
       <c r="P11" t="n">
-        <v>428.7636087999078</v>
+        <v>428.763608799908</v>
       </c>
       <c r="Q11" t="n">
-        <v>243.9818363726265</v>
+        <v>243.9818363726266</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K12" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126994</v>
       </c>
       <c r="L12" t="n">
-        <v>505.5072506367421</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M12" t="n">
-        <v>176.702318789568</v>
+        <v>176.7023187895682</v>
       </c>
       <c r="N12" t="n">
-        <v>668.3742549038707</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O12" t="n">
-        <v>156.7964442442422</v>
+        <v>550.6587635209719</v>
       </c>
       <c r="P12" t="n">
-        <v>424.7773888239633</v>
+        <v>288.4788969627772</v>
       </c>
       <c r="Q12" t="n">
         <v>230.7223651180293</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.180450788734518</v>
+        <v>6.180450788734532</v>
       </c>
       <c r="K13" t="n">
-        <v>125.2514376993489</v>
+        <v>125.251437699349</v>
       </c>
       <c r="L13" t="n">
         <v>209.3874211591744</v>
       </c>
       <c r="M13" t="n">
-        <v>229.9072321797122</v>
+        <v>229.9072321797123</v>
       </c>
       <c r="N13" t="n">
         <v>230.5234203746082</v>
       </c>
       <c r="O13" t="n">
-        <v>198.6525764438037</v>
+        <v>198.6525764438038</v>
       </c>
       <c r="P13" t="n">
         <v>149.8249136305786</v>
       </c>
       <c r="Q13" t="n">
-        <v>27.1303724270146</v>
+        <v>27.13037242701463</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35656,16 +35656,16 @@
         <v>632.1302708474111</v>
       </c>
       <c r="N14" t="n">
-        <v>627.5790040007523</v>
+        <v>627.5790040007525</v>
       </c>
       <c r="O14" t="n">
-        <v>546.9609788157251</v>
+        <v>546.9609788157252</v>
       </c>
       <c r="P14" t="n">
-        <v>428.7636087999079</v>
+        <v>428.763608799908</v>
       </c>
       <c r="Q14" t="n">
-        <v>243.9818363726265</v>
+        <v>243.9818363726266</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>118.1395757805499</v>
+        <v>111.2381661835151</v>
       </c>
       <c r="K15" t="n">
         <v>329.8191935338485</v>
@@ -35732,13 +35732,13 @@
         <v>505.5072506367422</v>
       </c>
       <c r="M15" t="n">
-        <v>255.2809642593575</v>
+        <v>176.7023187895682</v>
       </c>
       <c r="N15" t="n">
-        <v>195.9332901573516</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O15" t="n">
-        <v>550.6587635209718</v>
+        <v>156.7964442442423</v>
       </c>
       <c r="P15" t="n">
         <v>424.7773888239634</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283944</v>
       </c>
       <c r="K17" t="n">
         <v>403.2187514297311</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>329.8191935338485</v>
@@ -35969,19 +35969,19 @@
         <v>505.5072506367422</v>
       </c>
       <c r="M18" t="n">
-        <v>255.2809642593575</v>
+        <v>176.7023187895681</v>
       </c>
       <c r="N18" t="n">
-        <v>195.9332901573516</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O18" t="n">
-        <v>550.6587635209718</v>
+        <v>478.1118981636068</v>
       </c>
       <c r="P18" t="n">
         <v>424.7773888239634</v>
       </c>
       <c r="Q18" t="n">
-        <v>230.7223651180293</v>
+        <v>20.6450773821802</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.94395593311295</v>
+        <v>63.94395593311292</v>
       </c>
       <c r="K19" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L19" t="n">
-        <v>267.1509263035529</v>
+        <v>267.1509263035528</v>
       </c>
       <c r="M19" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N19" t="n">
-        <v>288.2869255189867</v>
+        <v>288.2869255189866</v>
       </c>
       <c r="O19" t="n">
         <v>256.4160815881821</v>
       </c>
       <c r="P19" t="n">
-        <v>207.5884187749571</v>
+        <v>207.588418774957</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.89387757139305</v>
+        <v>84.89387757139302</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283944</v>
       </c>
       <c r="K20" t="n">
-        <v>403.218751429731</v>
+        <v>403.2187514297311</v>
       </c>
       <c r="L20" t="n">
         <v>553.0331904746308</v>
       </c>
       <c r="M20" t="n">
-        <v>632.130270847411</v>
+        <v>632.1302708474111</v>
       </c>
       <c r="N20" t="n">
         <v>627.5790040007523</v>
@@ -36136,7 +36136,7 @@
         <v>546.9609788157251</v>
       </c>
       <c r="P20" t="n">
-        <v>428.7636087999078</v>
+        <v>428.7636087999079</v>
       </c>
       <c r="Q20" t="n">
         <v>243.9818363726265</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126988</v>
       </c>
       <c r="L21" t="n">
-        <v>505.5072506367421</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M21" t="n">
-        <v>176.702318789568</v>
+        <v>642.4073825395681</v>
       </c>
       <c r="N21" t="n">
-        <v>274.511935627141</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O21" t="n">
-        <v>550.6587635209717</v>
+        <v>550.6587635209718</v>
       </c>
       <c r="P21" t="n">
-        <v>424.7773888239633</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q21" t="n">
-        <v>230.7223651180293</v>
+        <v>117.6987305908525</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.94395593311293</v>
+        <v>63.9439559331129</v>
       </c>
       <c r="K22" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L22" t="n">
         <v>267.1509263035528</v>
@@ -36297,7 +36297,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139301</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283944</v>
       </c>
       <c r="K23" t="n">
-        <v>403.218751429731</v>
+        <v>403.2187514297311</v>
       </c>
       <c r="L23" t="n">
         <v>553.0331904746308</v>
       </c>
       <c r="M23" t="n">
-        <v>632.130270847411</v>
+        <v>632.1302708474111</v>
       </c>
       <c r="N23" t="n">
         <v>627.5790040007523</v>
@@ -36373,7 +36373,7 @@
         <v>546.9609788157251</v>
       </c>
       <c r="P23" t="n">
-        <v>428.7636087999078</v>
+        <v>428.7636087999079</v>
       </c>
       <c r="Q23" t="n">
         <v>243.9818363726265</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>97.05365320867284</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>65.35395652126985</v>
+        <v>65.35395652126988</v>
       </c>
       <c r="L24" t="n">
-        <v>134.666905333283</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M24" t="n">
-        <v>642.4073825395679</v>
+        <v>176.7023187895681</v>
       </c>
       <c r="N24" t="n">
-        <v>675.2756645009051</v>
+        <v>657.1167484202693</v>
       </c>
       <c r="O24" t="n">
-        <v>550.6587635209717</v>
+        <v>550.6587635209718</v>
       </c>
       <c r="P24" t="n">
-        <v>424.7773888239633</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q24" t="n">
-        <v>20.64507738218018</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,13 +36519,13 @@
         <v>183.0149428437274</v>
       </c>
       <c r="L25" t="n">
-        <v>267.1509263035528</v>
+        <v>267.1509263035529</v>
       </c>
       <c r="M25" t="n">
         <v>287.6707373240906</v>
       </c>
       <c r="N25" t="n">
-        <v>288.2869255189866</v>
+        <v>288.2869255189867</v>
       </c>
       <c r="O25" t="n">
         <v>256.4160815881821</v>
@@ -36534,7 +36534,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139303</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>187.6604060283943</v>
+        <v>187.6604060283944</v>
       </c>
       <c r="K26" t="n">
-        <v>403.218751429731</v>
+        <v>403.2187514297311</v>
       </c>
       <c r="L26" t="n">
         <v>553.0331904746308</v>
       </c>
       <c r="M26" t="n">
-        <v>632.130270847411</v>
+        <v>632.1302708474111</v>
       </c>
       <c r="N26" t="n">
         <v>627.5790040007523</v>
@@ -36610,7 +36610,7 @@
         <v>546.9609788157251</v>
       </c>
       <c r="P26" t="n">
-        <v>428.7636087999078</v>
+        <v>428.7636087999079</v>
       </c>
       <c r="Q26" t="n">
         <v>243.9818363726265</v>
@@ -36674,22 +36674,22 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K27" t="n">
-        <v>329.8191935338484</v>
+        <v>65.35395652126988</v>
       </c>
       <c r="L27" t="n">
-        <v>505.5072506367421</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M27" t="n">
-        <v>255.2809642593575</v>
+        <v>642.4073825395681</v>
       </c>
       <c r="N27" t="n">
-        <v>195.9332901573515</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O27" t="n">
-        <v>550.6587635209717</v>
+        <v>550.6587635209718</v>
       </c>
       <c r="P27" t="n">
-        <v>424.7773888239633</v>
+        <v>193.6141785162367</v>
       </c>
       <c r="Q27" t="n">
         <v>230.7223651180293</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.94395593311293</v>
+        <v>63.9439559331129</v>
       </c>
       <c r="K28" t="n">
-        <v>183.0149428437274</v>
+        <v>183.0149428437273</v>
       </c>
       <c r="L28" t="n">
         <v>267.1509263035528</v>
@@ -36771,7 +36771,7 @@
         <v>207.588418774957</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.89387757139302</v>
+        <v>84.89387757139301</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K30" t="n">
-        <v>329.8191935338485</v>
+        <v>65.35395652126988</v>
       </c>
       <c r="L30" t="n">
-        <v>505.5072506367422</v>
+        <v>382.8460693691102</v>
       </c>
       <c r="M30" t="n">
-        <v>255.2809642593575</v>
+        <v>642.4073825395681</v>
       </c>
       <c r="N30" t="n">
         <v>195.9332901573516</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.94395593311287</v>
+        <v>63.94395593311285</v>
       </c>
       <c r="K31" t="n">
         <v>183.0149428437273</v>
@@ -36996,19 +36996,19 @@
         <v>267.1509263035528</v>
       </c>
       <c r="M31" t="n">
-        <v>287.6707373240906</v>
+        <v>287.6707373240905</v>
       </c>
       <c r="N31" t="n">
         <v>288.2869255189865</v>
       </c>
       <c r="O31" t="n">
-        <v>256.4160815881821</v>
+        <v>256.416081588182</v>
       </c>
       <c r="P31" t="n">
-        <v>207.588418774957</v>
+        <v>207.5884187749569</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.89387757139298</v>
+        <v>84.89387757139295</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>632.1302708474111</v>
       </c>
       <c r="N32" t="n">
-        <v>627.5790040007524</v>
+        <v>627.5790040007523</v>
       </c>
       <c r="O32" t="n">
         <v>546.9609788157251</v>
@@ -37154,13 +37154,13 @@
         <v>505.5072506367422</v>
       </c>
       <c r="M33" t="n">
-        <v>255.2809642593575</v>
+        <v>642.4073825395681</v>
       </c>
       <c r="N33" t="n">
-        <v>195.9332901573516</v>
+        <v>202.6691911538704</v>
       </c>
       <c r="O33" t="n">
-        <v>550.6587635209718</v>
+        <v>156.7964442442423</v>
       </c>
       <c r="P33" t="n">
         <v>424.7773888239634</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>187.6604060283944</v>
+        <v>187.6604060283943</v>
       </c>
       <c r="K35" t="n">
         <v>403.2187514297311</v>
@@ -37385,19 +37385,19 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K36" t="n">
-        <v>329.8191935338485</v>
+        <v>65.35395652126988</v>
       </c>
       <c r="L36" t="n">
-        <v>505.5072506367422</v>
+        <v>297.3660143022861</v>
       </c>
       <c r="M36" t="n">
-        <v>255.2809642593575</v>
+        <v>642.4073825395681</v>
       </c>
       <c r="N36" t="n">
-        <v>195.9332901573516</v>
+        <v>675.2756645009051</v>
       </c>
       <c r="O36" t="n">
-        <v>550.6587635209718</v>
+        <v>156.7964442442423</v>
       </c>
       <c r="P36" t="n">
         <v>424.7773888239634</v>
@@ -37543,7 +37543,7 @@
         <v>187.6604060283944</v>
       </c>
       <c r="K38" t="n">
-        <v>403.2187514297311</v>
+        <v>403.218751429731</v>
       </c>
       <c r="L38" t="n">
         <v>553.0331904746308</v>
@@ -37622,13 +37622,13 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K39" t="n">
-        <v>65.35395652126988</v>
+        <v>152.6535148534807</v>
       </c>
       <c r="L39" t="n">
-        <v>505.5072506367422</v>
+        <v>134.666905333283</v>
       </c>
       <c r="M39" t="n">
-        <v>250.4811146642316</v>
+        <v>642.4073825395681</v>
       </c>
       <c r="N39" t="n">
         <v>675.2756645009051</v>
@@ -37637,10 +37637,10 @@
         <v>550.6587635209718</v>
       </c>
       <c r="P39" t="n">
-        <v>424.7773888239634</v>
+        <v>106.3146201840262</v>
       </c>
       <c r="Q39" t="n">
-        <v>20.6450773821802</v>
+        <v>230.7223651180293</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>118.1395757805499</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>329.8191935338485</v>
+        <v>65.35395652126988</v>
       </c>
       <c r="L42" t="n">
-        <v>351.3635459296447</v>
+        <v>505.5072506367422</v>
       </c>
       <c r="M42" t="n">
         <v>642.4073825395681</v>
@@ -37871,13 +37871,13 @@
         <v>675.2756645009051</v>
       </c>
       <c r="O42" t="n">
-        <v>156.7964442442423</v>
+        <v>276.8720714261851</v>
       </c>
       <c r="P42" t="n">
-        <v>106.3146201840262</v>
+        <v>424.7773888239634</v>
       </c>
       <c r="Q42" t="n">
-        <v>230.7223651180293</v>
+        <v>20.6450773821802</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,13 +38096,13 @@
         <v>118.1395757805499</v>
       </c>
       <c r="K45" t="n">
-        <v>329.8191935338485</v>
+        <v>65.35395652126988</v>
       </c>
       <c r="L45" t="n">
         <v>505.5072506367422</v>
       </c>
       <c r="M45" t="n">
-        <v>255.2809642593575</v>
+        <v>642.4073825395681</v>
       </c>
       <c r="N45" t="n">
         <v>195.9332901573516</v>
@@ -38114,7 +38114,7 @@
         <v>424.7773888239634</v>
       </c>
       <c r="Q45" t="n">
-        <v>230.7223651180293</v>
+        <v>108.0611838503969</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
